--- a/input/meas/SDG/sdg.xlsx
+++ b/input/meas/SDG/sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Documents\scripts\IPBES-Data\IPBES_Data_Indicators\input\meas\SDG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLU-SU\Documents\GitHub\IPBES-Data\IPBES_Data_Indicators\input\meas\SDG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED16C33-5C79-4D1B-80B5-C8CD9FF9A9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E2F56-CE2B-4DAD-99FD-36DF695F7A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7605" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A.RES.71.313 Annex" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="754">
   <si>
     <t>Goal 1. End poverty in all its forms everywhere</t>
   </si>
@@ -1072,9 +1072,6 @@
   </si>
   <si>
     <t>8.8.2 Level of national compliance with labour rights (freedom of association and collective bargaining) based on International Labour Organization (ILO) textual sources and national legislation, by sex and migrant status</t>
-  </si>
-  <si>
-    <t>8.10.2 Proportion of adults (15 years and older) with an account at a bank or other financial institution or with a mobile-money-service provider</t>
   </si>
   <si>
     <t>9.1 Develop quality, reliable, sustainable and resilient infrastructure, including regional and transborder infrastructure, to support economic development and human well-being, with a focus on affordable and equitable access for all</t>
@@ -3669,9 +3666,6 @@
     <t>9.4.1 CO2 emission per unit of value added</t>
   </si>
   <si>
-    <t>10.4.2 Redistributive impact of fiscal policy2</t>
-  </si>
-  <si>
     <t>11.a.1 Number of countries that have national urban policies or regional development plans that (a) respond to population dynamics; (b) ensure balanced territorial development; and (c) increase local fiscal space</t>
   </si>
   <si>
@@ -3690,12 +3684,6 @@
     <t>16.7.1 Proportions of positions in national and local institutions, including (a) the legislatures; (b) the public service; and (c) the judiciary, compared to national distributions, by sex, age, persons with disabilities and population groups</t>
   </si>
   <si>
-    <t>17.6.1 Fixed broadband subscriptions per 100 inhabitants, by speed5</t>
-  </si>
-  <si>
-    <t>17.19.2 Proportion of countries that (a) have conducted at least one population and housing census in the last 10 years; and (b) have achieved 100 per cent birth registration and 80 per cent death registration</t>
-  </si>
-  <si>
     <t>11.5.3.a Damage to critical infrastructure</t>
   </si>
   <si>
@@ -3754,13 +3742,103 @@
   </si>
   <si>
     <t>5.a.1.b share of women among owners or rights-bearers of agricultural land, by type of tenure</t>
+  </si>
+  <si>
+    <t>5.1.1 Whether or not legal frameworks are in place to promote, enforce and monitor equality and non‑discrimination on the basis of sex</t>
+  </si>
+  <si>
+    <t>10.1.1 Growth rates of household expenditure or income per capita among the bottom 40 percent of the population and the total population</t>
+  </si>
+  <si>
+    <t>3.7.2 Adolescent birth rate (aged 10-14 years; aged 15-19 years) per 1,000 women in that age group</t>
+  </si>
+  <si>
+    <t>3.a.1 Age-standardized prevalence of current tobacco use among persons aged 15 years and older</t>
+  </si>
+  <si>
+    <t>11.6.2 Annual mean levels of fine particulate matter (e.g. PM2.5 and PM10) in cities (population weighted)</t>
+  </si>
+  <si>
+    <t>17.6.1 Fixed broadband subscriptions per 100 inhabitants, by speed</t>
+  </si>
+  <si>
+    <t>5.6.2 Number of countries with laws and regulations that guarantee full and equal access to women and men aged 15 years and older to sexual and reproductive health care, information and education</t>
+  </si>
+  <si>
+    <t>16.10.1 Number of verified cases of killing, kidnapping, enforced disappearance, arbitrary detention and torture of journalists, associated media personnel, trade unionists and human rights advocates in the previous 12 months</t>
+  </si>
+  <si>
+    <t>4.3.1 Participation rate of youth and adults in formal and non-formal education and training in the previous 12 months, by sex</t>
+  </si>
+  <si>
+    <t>2.2.2 Prevalence of malnutrition (weight for height &gt;+2 or &lt;-2 standard deviation from the median of the who child growth standards) among children under 5 years of age, by type (wasting and overweight)</t>
+  </si>
+  <si>
+    <t>2.2.1 Prevalence of stunting (height for age &lt;-2 standard deviation from the median of the world health organization (who) child growth standards) among children under 5 years of age</t>
+  </si>
+  <si>
+    <t>8.7.1 Proportion and number of children aged 5-17 years engaged in child labour, by sex and age</t>
+  </si>
+  <si>
+    <t>16.5.2 Proportion of businesses that had at least one contact with a public official and that paid a bribe to a public official, or were asked for a bribe by those public officials during the previous 12 months</t>
+  </si>
+  <si>
+    <t>16.2.1 Proportion of children aged 1-17 years who experienced any physical punishment and/or psychological aggression by caregivers in the past month</t>
+  </si>
+  <si>
+    <t>16.9.1 Proportion of children under 5 years of age whose births have been registered with a civil authority, by age</t>
+  </si>
+  <si>
+    <t>5.3.2 Proportion of girls and women aged 15-49 years who have undergone female genital mutilation, by age</t>
+  </si>
+  <si>
+    <t>10.2.1 Proportion of people living below 50 per cent of median income, by sex, age and persons with disabilities</t>
+  </si>
+  <si>
+    <t>16.5.1 Proportion of persons who had at least one contact with a public official and who paid a bribe to a public official, or were asked for a bribe by those public officials, during the previous 12 months</t>
+  </si>
+  <si>
+    <t>10.3.1 Proportion of population reporting having personally felt discriminated against or harassed in the previous 12 months on the basis of a ground of discrimination prohibited under international human rights law</t>
+  </si>
+  <si>
+    <t>9.1.1 Proportion of the rural population who live within 2 km of an all-season road</t>
+  </si>
+  <si>
+    <t>5.6.1 Proportion of women aged 15-49 years who make their own informed decisions regarding sexual relations, contraceptive use and reproductive health care</t>
+  </si>
+  <si>
+    <t>5.3.1 Proportion of women aged 20-24 years who were married or in a union before age 15 and before age 18</t>
+  </si>
+  <si>
+    <t>5.2.1 Proportion of women and girls aged 15 years and older subjected to sexual violence by persons other than an intimate partner in the previous 12 months, by age and place of occurrence</t>
+  </si>
+  <si>
+    <t>3.7.1 Proportion of women of reproductive age (aged 15-49 years) who have their need for family planning satisfied with modern methods</t>
+  </si>
+  <si>
+    <t>16.2.3 Proportion of young women and men aged 18-29 years who experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>8.6.1 Proportion of youth (aged 15-24 years) not in education, employment or training</t>
+  </si>
+  <si>
+    <t>10.4.2 Redistributive impact of fiscal policy</t>
+  </si>
+  <si>
+    <t>8.10.2 Proportion of adults (15 years and older) with an account at a bank or other financial institution or with a mobile-money-service provider</t>
+  </si>
+  <si>
+    <t>17.19.2 Proportion of countries that (a) have conducted at least one population and housing census in the last 10 years; and (b) have achieved 100 per cent birth registration and 80 per cent death registration</t>
+  </si>
+  <si>
+    <t>5.2.2 Proportion of women and girls aged 15 years and older subjected to sexual violence by persons other than an intimate partner in the previous 12 months, by age and place of occurrence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4042,19 +4120,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4072,29 +4165,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4441,85 +4519,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281:C281"/>
+    <sheetView topLeftCell="B122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="49.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="49.796875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="49.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" ht="37.5" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="26">
       <c r="A3" s="12"/>
       <c r="B3" s="14" t="s">
         <v>312</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="39">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26">
       <c r="A6" s="11"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26">
       <c r="A7" s="11"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -4528,192 +4606,192 @@
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26">
       <c r="A9" s="11"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39">
+      <c r="A10" s="11"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="26">
       <c r="A11" s="11"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26">
       <c r="A12" s="11"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39">
       <c r="A13" s="11"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="17" t="s">
         <v>313</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39">
       <c r="A14" s="11"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39">
+      <c r="A15" s="11"/>
+      <c r="B15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="26">
       <c r="A16" s="11"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="11"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="34" t="s">
         <v>314</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="52.5" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="17" t="s">
         <v>316</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26">
+      <c r="A23" s="11"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="42" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="65">
       <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
@@ -4722,54 +4800,54 @@
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="D27" s="11" t="s">
+    <row r="28" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="38.25" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="38.25" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="65">
       <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
@@ -4778,10 +4856,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="52">
       <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -4790,158 +4868,158 @@
         <v>32</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="6"/>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="11"/>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="11"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="30" t="s">
         <v>317</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="38.25" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="11"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="11"/>
-      <c r="B40" s="24"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="11"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="26">
       <c r="A42" s="11"/>
-      <c r="B42" s="24"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26">
       <c r="A43" s="11"/>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="30" t="s">
         <v>319</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="11"/>
-      <c r="B44" s="24"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="39">
       <c r="A45" s="11"/>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="26">
+      <c r="A46" s="11"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="26">
       <c r="A47" s="11"/>
       <c r="B47" s="1" t="s">
         <v>48</v>
@@ -4950,86 +5028,86 @@
         <v>49</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="26">
       <c r="A48" s="11"/>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>320</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="27.75" customHeight="1">
       <c r="A49" s="11"/>
-      <c r="B49" s="24"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="17" t="s">
         <v>321</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="66" customHeight="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="27.75" customHeight="1">
       <c r="A51" s="11"/>
-      <c r="B51" s="24"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="17" t="s">
         <v>249</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="11"/>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="39">
       <c r="A53" s="11"/>
-      <c r="B53" s="24"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="11"/>
-      <c r="B54" s="24"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="39">
       <c r="A55" s="11"/>
       <c r="B55" s="1" t="s">
         <v>56</v>
@@ -5038,42 +5116,42 @@
         <v>322</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="38.25" customHeight="1">
       <c r="A56" s="11"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>310</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="38.25" customHeight="1">
       <c r="A57" s="11"/>
-      <c r="B57" s="24"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="38.25" customHeight="1">
       <c r="A58" s="11"/>
-      <c r="B58" s="24"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="52">
       <c r="A59" s="11"/>
       <c r="B59" s="1" t="s">
         <v>60</v>
@@ -5082,96 +5160,96 @@
         <v>61</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="26">
       <c r="A60" s="11"/>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="26">
+      <c r="A61" s="11"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="17" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="7"/>
+      <c r="B62" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" ht="52">
+      <c r="A63" s="7"/>
+      <c r="B63" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="26">
+      <c r="A64" s="11"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="39">
+      <c r="A65" s="11"/>
+      <c r="B65" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="D65" s="11" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="26">
       <c r="A66" s="11"/>
-      <c r="B66" s="24"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="17" t="s">
         <v>250</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="39">
       <c r="A67" s="11"/>
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="39">
       <c r="A68" s="11"/>
       <c r="B68" s="1" t="s">
         <v>67</v>
@@ -5180,10 +5258,10 @@
         <v>251</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="52.5" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="1" t="s">
         <v>68</v>
@@ -5192,46 +5270,46 @@
         <v>252</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="40.5" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="78">
       <c r="A71" s="11"/>
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="39">
       <c r="A72" s="11"/>
       <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="91">
       <c r="A73" s="11"/>
       <c r="B73" s="1" t="s">
         <v>72</v>
@@ -5240,30 +5318,30 @@
         <v>253</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="52">
       <c r="A74" s="11"/>
       <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="6"/>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="25"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="26">
       <c r="A76" s="11"/>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -5272,54 +5350,54 @@
         <v>324</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="53.25" customHeight="1">
       <c r="A77" s="11"/>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>325</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="40.5" customHeight="1">
       <c r="A78" s="11"/>
-      <c r="B78" s="24"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="27.75" customHeight="1">
       <c r="A79" s="11"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>327</v>
       </c>
       <c r="D79" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A80" s="11"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="52">
       <c r="A81" s="11"/>
       <c r="B81" s="1" t="s">
         <v>78</v>
@@ -5328,76 +5406,76 @@
         <v>254</v>
       </c>
       <c r="D81" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="27" customHeight="1">
+      <c r="A82" s="11"/>
+      <c r="B82" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="11"/>
-      <c r="B83" s="24"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="17" t="s">
         <v>255</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="40.5" customHeight="1">
       <c r="A84" s="11"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>328</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="40.5" customHeight="1">
       <c r="A85" s="11"/>
-      <c r="B85" s="24"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="17" t="s">
         <v>329</v>
       </c>
       <c r="D85" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="39">
+      <c r="A86" s="11"/>
+      <c r="B86" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="39">
       <c r="A87" s="11"/>
-      <c r="B87" s="24"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="17" t="s">
         <v>256</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="26">
       <c r="A88" s="11"/>
       <c r="B88" s="1" t="s">
         <v>82</v>
@@ -5406,10 +5484,10 @@
         <v>257</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="39">
       <c r="A89" s="11"/>
       <c r="B89" s="1" t="s">
         <v>83</v>
@@ -5418,18 +5496,18 @@
         <v>258</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="6"/>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="25"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="11"/>
     </row>
-    <row r="91" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="26">
       <c r="A91" s="11"/>
       <c r="B91" s="1" t="s">
         <v>85</v>
@@ -5438,88 +5516,88 @@
         <v>259</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="39">
       <c r="A92" s="11"/>
       <c r="B92" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D92" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A93" s="11"/>
+      <c r="B93" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="38.25" customHeight="1">
       <c r="A94" s="11"/>
-      <c r="B94" s="28"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="18" t="s">
         <v>260</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="38.25" customHeight="1">
       <c r="A95" s="11"/>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>261</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="38.25" customHeight="1">
       <c r="A96" s="11"/>
-      <c r="B96" s="28"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="18" t="s">
         <v>262</v>
       </c>
       <c r="D96" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="27" customHeight="1">
       <c r="A98" s="11"/>
-      <c r="B98" s="24"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="17" t="s">
         <v>263</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="26">
       <c r="A99" s="11"/>
       <c r="B99" s="1" t="s">
         <v>90</v>
@@ -5528,10 +5606,10 @@
         <v>264</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="52">
       <c r="A100" s="11"/>
       <c r="B100" s="1" t="s">
         <v>91</v>
@@ -5540,10 +5618,10 @@
         <v>265</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="39">
       <c r="A101" s="11"/>
       <c r="B101" s="1" t="s">
         <v>92</v>
@@ -5552,40 +5630,40 @@
         <v>266</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="6"/>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="25"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="11"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="11"/>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="30" t="s">
         <v>94</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>267</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="27" customHeight="1">
       <c r="A104" s="11"/>
-      <c r="B104" s="24"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="17" t="s">
         <v>268</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="26">
       <c r="A105" s="11"/>
       <c r="B105" s="1" t="s">
         <v>95</v>
@@ -5594,10 +5672,10 @@
         <v>269</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="11"/>
       <c r="B106" s="1" t="s">
         <v>96</v>
@@ -5606,10 +5684,10 @@
         <v>270</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="52">
       <c r="A107" s="11"/>
       <c r="B107" s="1" t="s">
         <v>97</v>
@@ -5618,30 +5696,30 @@
         <v>311</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="65">
       <c r="A108" s="11"/>
       <c r="B108" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="6"/>
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="25"/>
+      <c r="C109" s="33"/>
       <c r="D109" s="11"/>
     </row>
-    <row r="110" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="39">
       <c r="A110" s="11"/>
       <c r="B110" s="1" t="s">
         <v>330</v>
@@ -5650,10 +5728,10 @@
         <v>271</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="39">
       <c r="A111" s="11"/>
       <c r="B111" s="1" t="s">
         <v>100</v>
@@ -5662,66 +5740,66 @@
         <v>272</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="65">
       <c r="A112" s="11"/>
       <c r="B112" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="38.25" customHeight="1">
       <c r="A113" s="11"/>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="38.25" customHeight="1">
       <c r="A114" s="11"/>
-      <c r="B114" s="24"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="17" t="s">
         <v>273</v>
       </c>
       <c r="D114" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="27" customHeight="1">
+      <c r="A115" s="11"/>
+      <c r="B115" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11"/>
-      <c r="B115" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="11"/>
-      <c r="B116" s="24"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="17" t="s">
         <v>274</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="27" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="1" t="s">
         <v>105</v>
@@ -5730,10 +5808,10 @@
         <v>331</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="52">
       <c r="A118" s="11"/>
       <c r="B118" s="1" t="s">
         <v>332</v>
@@ -5742,32 +5820,32 @@
         <v>333</v>
       </c>
       <c r="D118" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="27" customHeight="1">
+      <c r="A119" s="11"/>
+      <c r="B119" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11"/>
-      <c r="B119" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="52">
       <c r="A120" s="11"/>
-      <c r="B120" s="24"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="17" t="s">
         <v>335</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="26">
       <c r="A121" s="11"/>
       <c r="B121" s="1" t="s">
         <v>106</v>
@@ -5776,32 +5854,32 @@
         <v>275</v>
       </c>
       <c r="D121" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="39">
+      <c r="A122" s="11"/>
+      <c r="B122" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="11"/>
-      <c r="B122" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="D122" s="11" t="s">
+    <row r="123" spans="1:4" ht="39">
+      <c r="A123" s="11"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="11"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="52">
       <c r="A124" s="11"/>
       <c r="B124" s="1" t="s">
         <v>108</v>
@@ -5810,10 +5888,10 @@
         <v>276</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="39.75" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="1" t="s">
         <v>109</v>
@@ -5822,84 +5900,84 @@
         <v>277</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="6"/>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="C126" s="25"/>
+      <c r="C126" s="33"/>
       <c r="D126" s="11"/>
     </row>
-    <row r="127" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="38.25" customHeight="1">
       <c r="A127" s="11"/>
-      <c r="B127" s="24" t="s">
-        <v>337</v>
+      <c r="B127" s="30" t="s">
+        <v>336</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="38.25" customHeight="1">
       <c r="A128" s="11"/>
-      <c r="B128" s="24"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="17" t="s">
         <v>278</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="26">
       <c r="A129" s="11"/>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="30" t="s">
         <v>111</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>279</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="11"/>
-      <c r="B130" s="24"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="17" t="s">
         <v>280</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="11"/>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="11"/>
-      <c r="B132" s="24"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="17" t="s">
         <v>282</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="65">
       <c r="A133" s="11"/>
       <c r="B133" s="1" t="s">
         <v>113</v>
@@ -5908,32 +5986,32 @@
         <v>114</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="38.25" customHeight="1">
       <c r="A134" s="11"/>
-      <c r="B134" s="24" t="s">
-        <v>338</v>
+      <c r="B134" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>115</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="38.25" customHeight="1">
       <c r="A135" s="11"/>
-      <c r="B135" s="24"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="17" t="s">
         <v>116</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="52">
       <c r="A136" s="11"/>
       <c r="B136" s="1" t="s">
         <v>117</v>
@@ -5942,10 +6020,10 @@
         <v>118</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="52">
       <c r="A137" s="11"/>
       <c r="B137" s="1" t="s">
         <v>119</v>
@@ -5954,10 +6032,10 @@
         <v>283</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="39">
       <c r="A138" s="11"/>
       <c r="B138" s="1" t="s">
         <v>120</v>
@@ -5966,76 +6044,76 @@
         <v>284</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="6"/>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C139" s="25"/>
+      <c r="C139" s="33"/>
       <c r="D139" s="11"/>
     </row>
-    <row r="140" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="39">
       <c r="A140" s="11"/>
       <c r="B140" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C140" s="17" t="s">
-        <v>340</v>
-      </c>
       <c r="D140" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="39">
       <c r="A141" s="11"/>
       <c r="B141" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="52">
       <c r="A142" s="11"/>
       <c r="B142" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D142" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A143" s="11"/>
+      <c r="B143" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D143" s="11" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11"/>
-      <c r="B143" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D143" s="11" t="s">
+    <row r="144" spans="1:4" ht="36" customHeight="1">
+      <c r="A144" s="11"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="26">
       <c r="A145" s="11"/>
       <c r="B145" s="1" t="s">
         <v>125</v>
@@ -6044,10 +6122,10 @@
         <v>126</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="52">
       <c r="A146" s="11"/>
       <c r="B146" s="1" t="s">
         <v>127</v>
@@ -6056,52 +6134,52 @@
         <v>285</v>
       </c>
       <c r="D146" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A147" s="11"/>
+      <c r="B147" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11"/>
-      <c r="B147" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D147" s="11" t="s">
+    <row r="148" spans="1:4" ht="26">
+      <c r="A148" s="11"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="11"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="D148" s="11" t="s">
+    <row r="149" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A149" s="11"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="D149" s="11" t="s">
+    <row r="150" spans="1:4" ht="27" customHeight="1">
+      <c r="A150" s="11"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="39">
       <c r="A151" s="11"/>
       <c r="B151" s="1" t="s">
         <v>129</v>
@@ -6110,42 +6188,42 @@
         <v>130</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="65">
       <c r="A152" s="11"/>
       <c r="B152" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="39">
       <c r="A153" s="11"/>
       <c r="B153" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C153" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="6"/>
-      <c r="B154" s="25" t="s">
+      <c r="B154" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C154" s="25"/>
+      <c r="C154" s="33"/>
       <c r="D154" s="11"/>
     </row>
-    <row r="155" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="26">
       <c r="A155" s="11"/>
       <c r="B155" s="1" t="s">
         <v>134</v>
@@ -6154,10 +6232,10 @@
         <v>286</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="65">
       <c r="A156" s="11"/>
       <c r="B156" s="1" t="s">
         <v>135</v>
@@ -6166,240 +6244,240 @@
         <v>287</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="11"/>
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="30" t="s">
         <v>136</v>
       </c>
       <c r="C157" s="17" t="s">
         <v>288</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="40.5" customHeight="1">
       <c r="A158" s="11"/>
-      <c r="B158" s="24"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="17" t="s">
         <v>137</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="52">
       <c r="A159" s="11"/>
       <c r="B159" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="28.5" customHeight="1">
       <c r="A160" s="11"/>
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="30" t="s">
         <v>139</v>
       </c>
       <c r="C160" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="26">
       <c r="A161" s="11"/>
-      <c r="B161" s="24"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D161" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="26">
+      <c r="A162" s="11"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D162" s="11" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A162" s="11"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="26">
       <c r="A163" s="11"/>
-      <c r="B163" s="24" t="s">
+      <c r="B163" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D163" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="27" customHeight="1">
+      <c r="A164" s="11"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="11"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="27" customHeight="1">
       <c r="A165" s="11"/>
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C165" s="17" t="s">
         <v>289</v>
       </c>
       <c r="D165" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="39">
+      <c r="A166" s="11"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="D166" s="11" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="11"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="52">
       <c r="A167" s="11"/>
       <c r="B167" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="39">
       <c r="A168" s="11"/>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C168" s="17" t="s">
-        <v>347</v>
-      </c>
       <c r="D168" s="11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="39">
       <c r="A169" s="11"/>
-      <c r="B169" s="24"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="17" t="s">
         <v>290</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="52">
       <c r="A170" s="11"/>
       <c r="B170" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D170" s="11"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" s="6"/>
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C171" s="25"/>
+      <c r="C171" s="33"/>
       <c r="D171" s="11"/>
     </row>
-    <row r="172" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="52">
       <c r="A172" s="11"/>
       <c r="B172" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="28.5" customHeight="1">
       <c r="A173" s="11"/>
-      <c r="B173" s="24" t="s">
+      <c r="B173" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C173" s="17" t="s">
         <v>291</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="27" customHeight="1">
       <c r="A174" s="11"/>
-      <c r="B174" s="24"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="17" t="s">
         <v>292</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="39">
       <c r="A175" s="11"/>
       <c r="B175" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="53.25" customHeight="1">
       <c r="A176" s="11"/>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="30" t="s">
         <v>148</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>149</v>
       </c>
       <c r="D176" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="64.400000000000006" customHeight="1">
+      <c r="A177" s="11"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="D177" s="11" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="11"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="26">
       <c r="A178" s="11"/>
       <c r="B178" s="1" t="s">
         <v>150</v>
@@ -6408,10 +6486,10 @@
         <v>151</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="39">
       <c r="A179" s="11"/>
       <c r="B179" s="1" t="s">
         <v>152</v>
@@ -6420,200 +6498,200 @@
         <v>153</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="26">
       <c r="A180" s="11"/>
       <c r="B180" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="52.5" customHeight="1">
       <c r="A181" s="11"/>
       <c r="B181" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="40.5" customHeight="1">
       <c r="A182" s="11"/>
       <c r="B182" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="39">
       <c r="A183" s="11"/>
       <c r="B183" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="104">
       <c r="A184" s="11"/>
       <c r="B184" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="6"/>
-      <c r="B185" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C185" s="25"/>
+      <c r="B185" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="C185" s="33"/>
       <c r="D185" s="11"/>
     </row>
-    <row r="186" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="27" customHeight="1">
       <c r="A186" s="11"/>
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C186" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D186" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="39">
+      <c r="A187" s="11"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D187" s="11" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="11"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="39" customHeight="1">
       <c r="A188" s="11"/>
-      <c r="B188" s="24"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="52">
       <c r="A189" s="11"/>
-      <c r="B189" s="29" t="s">
+      <c r="B189" s="34" t="s">
         <v>162</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D189" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="11"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D190" s="11" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="11"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="52">
       <c r="A191" s="11"/>
       <c r="B191" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="91">
       <c r="A192" s="11"/>
       <c r="B192" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="78.75" customHeight="1">
       <c r="A193" s="11"/>
       <c r="B193" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="6"/>
-      <c r="B194" s="25" t="s">
+      <c r="B194" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C194" s="25"/>
+      <c r="C194" s="33"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="39">
       <c r="A195" s="11"/>
       <c r="B195" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="52">
       <c r="A196" s="11"/>
       <c r="B196" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="27.75" customHeight="1">
       <c r="A197" s="11"/>
       <c r="B197" s="1" t="s">
         <v>168</v>
@@ -6622,10 +6700,10 @@
         <v>293</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="78">
       <c r="A198" s="11"/>
       <c r="B198" s="1" t="s">
         <v>169</v>
@@ -6634,34 +6712,34 @@
         <v>294</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="39">
       <c r="A199" s="11"/>
       <c r="B199" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>295</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="94.8" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="93.5">
       <c r="A200" s="11"/>
       <c r="B200" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="52">
       <c r="A201" s="11"/>
       <c r="B201" s="1" t="s">
         <v>170</v>
@@ -6670,10 +6748,10 @@
         <v>296</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="91">
       <c r="A202" s="11"/>
       <c r="B202" s="1" t="s">
         <v>171</v>
@@ -6682,64 +6760,64 @@
         <v>297</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="39" customHeight="1">
       <c r="A203" s="11"/>
       <c r="B203" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="65">
       <c r="A204" s="11"/>
       <c r="B204" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="D204" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A205" s="6"/>
+      <c r="B205" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="D204" s="11" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="6"/>
-      <c r="B205" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="C205" s="25"/>
+      <c r="C205" s="33"/>
       <c r="D205" s="11"/>
     </row>
-    <row r="206" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="38.25" customHeight="1">
       <c r="A206" s="11"/>
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="30" t="s">
         <v>173</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>298</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="38.25" customHeight="1">
       <c r="A207" s="11"/>
-      <c r="B207" s="24"/>
+      <c r="B207" s="30"/>
       <c r="C207" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="39">
       <c r="A208" s="11"/>
       <c r="B208" s="1" t="s">
         <v>174</v>
@@ -6748,10 +6826,10 @@
         <v>300</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="39">
       <c r="A209" s="11"/>
       <c r="B209" s="1" t="s">
         <v>175</v>
@@ -6760,32 +6838,32 @@
         <v>301</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="26.25" customHeight="1">
       <c r="A210" s="11"/>
-      <c r="B210" s="24" t="s">
+      <c r="B210" s="30" t="s">
         <v>176</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>302</v>
       </c>
       <c r="D210" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="26">
+      <c r="A211" s="11"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D211" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A211" s="11"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="39">
       <c r="A212" s="11"/>
       <c r="B212" s="1" t="s">
         <v>177</v>
@@ -6794,10 +6872,10 @@
         <v>303</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="39">
       <c r="A213" s="11"/>
       <c r="B213" s="1" t="s">
         <v>178</v>
@@ -6806,10 +6884,10 @@
         <v>179</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="39">
       <c r="A214" s="11"/>
       <c r="B214" s="1" t="s">
         <v>180</v>
@@ -6818,10 +6896,10 @@
         <v>304</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="39">
       <c r="A215" s="11"/>
       <c r="B215" s="1" t="s">
         <v>181</v>
@@ -6830,46 +6908,46 @@
         <v>182</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="91">
       <c r="A216" s="11"/>
       <c r="B216" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="39">
       <c r="A217" s="11"/>
       <c r="B217" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="52">
       <c r="A218" s="11"/>
       <c r="B218" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="39">
       <c r="A219" s="11"/>
       <c r="B219" s="1" t="s">
         <v>186</v>
@@ -6878,212 +6956,212 @@
         <v>305</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="25.5" customHeight="1">
       <c r="A220" s="6"/>
-      <c r="B220" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="C220" s="25"/>
+      <c r="B220" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C220" s="33"/>
       <c r="D220" s="11"/>
     </row>
-    <row r="221" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="27" customHeight="1">
       <c r="A221" s="11"/>
-      <c r="B221" s="24" t="s">
+      <c r="B221" s="30" t="s">
         <v>187</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="26">
       <c r="A222" s="11"/>
-      <c r="B222" s="24"/>
+      <c r="B222" s="30"/>
       <c r="C222" s="17" t="s">
         <v>307</v>
       </c>
       <c r="D222" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="39">
+      <c r="A223" s="11"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="D223" s="11" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A223" s="11"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="17" t="s">
-        <v>682</v>
-      </c>
-      <c r="D223" s="11" t="s">
+    <row r="224" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A224" s="11"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A225" s="11"/>
+      <c r="B225" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D225" s="11" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="11"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="11"/>
-      <c r="B225" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="27" customHeight="1">
       <c r="A226" s="11"/>
-      <c r="B226" s="24"/>
+      <c r="B226" s="30"/>
       <c r="C226" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D226" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="27" customHeight="1">
+      <c r="A227" s="11"/>
+      <c r="B227" s="30"/>
+      <c r="C227" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D227" s="11" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="11"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="D227" s="11" t="s">
+    <row r="228" spans="1:4" ht="52">
+      <c r="A228" s="11"/>
+      <c r="B228" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D228" s="11" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="11"/>
-      <c r="B228" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="D228" s="11" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="39.75" customHeight="1">
       <c r="A229" s="11"/>
-      <c r="B229" s="24"/>
+      <c r="B229" s="30"/>
       <c r="C229" s="17" t="s">
         <v>309</v>
       </c>
       <c r="D229" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="39">
+      <c r="A230" s="11"/>
+      <c r="B230" s="30"/>
+      <c r="C230" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D230" s="11" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A230" s="11"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="27" customHeight="1">
       <c r="A231" s="11"/>
-      <c r="B231" s="24" t="s">
+      <c r="B231" s="30" t="s">
         <v>190</v>
       </c>
       <c r="C231" s="17" t="s">
         <v>191</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="39">
       <c r="A232" s="11"/>
-      <c r="B232" s="24"/>
+      <c r="B232" s="30"/>
       <c r="C232" s="17" t="s">
         <v>192</v>
       </c>
       <c r="D232" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="39" customHeight="1">
+      <c r="A233" s="11"/>
+      <c r="B233" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D233" s="11" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="11"/>
-      <c r="B233" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C233" s="17" t="s">
+    <row r="234" spans="1:4" ht="40.5" customHeight="1">
+      <c r="A234" s="11"/>
+      <c r="B234" s="30"/>
+      <c r="C234" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="D233" s="11" t="s">
+      <c r="D234" s="11" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="11"/>
-      <c r="B234" s="24"/>
-      <c r="C234" s="17" t="s">
+    <row r="235" spans="1:4" ht="27" customHeight="1">
+      <c r="A235" s="11"/>
+      <c r="B235" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C235" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D234" s="11" t="s">
+      <c r="D235" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="11"/>
-      <c r="B235" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="27" customHeight="1">
       <c r="A236" s="11"/>
-      <c r="B236" s="24"/>
+      <c r="B236" s="30"/>
       <c r="C236" s="17" t="s">
         <v>195</v>
       </c>
       <c r="D236" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="52">
+      <c r="A237" s="11"/>
+      <c r="B237" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D237" s="11" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="11"/>
-      <c r="B237" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C237" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="26">
       <c r="A238" s="11"/>
-      <c r="B238" s="24"/>
+      <c r="B238" s="30"/>
       <c r="C238" s="17" t="s">
         <v>197</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="27" customHeight="1">
       <c r="A239" s="11"/>
       <c r="B239" s="1" t="s">
         <v>198</v>
@@ -7092,44 +7170,44 @@
         <v>199</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="27" customHeight="1">
       <c r="A240" s="11"/>
       <c r="B240" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C240" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="52.5" customHeight="1">
+      <c r="A241" s="11"/>
+      <c r="B241" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C241" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="D240" s="11" t="s">
+      <c r="D241" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="11"/>
-      <c r="B241" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="27" customHeight="1">
       <c r="A242" s="11"/>
-      <c r="B242" s="24"/>
+      <c r="B242" s="30"/>
       <c r="C242" s="17" t="s">
         <v>202</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="52">
       <c r="A243" s="11"/>
       <c r="B243" s="1" t="s">
         <v>203</v>
@@ -7138,10 +7216,10 @@
         <v>204</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="52">
       <c r="A244" s="11"/>
       <c r="B244" s="1" t="s">
         <v>205</v>
@@ -7150,18 +7228,18 @@
         <v>206</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="6"/>
-      <c r="B245" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="C245" s="25"/>
+      <c r="B245" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C245" s="33"/>
       <c r="D245" s="11"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="6"/>
       <c r="B246" s="2" t="s">
         <v>207</v>
@@ -7169,63 +7247,63 @@
       <c r="C246" s="19"/>
       <c r="D246" s="11"/>
     </row>
-    <row r="247" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="21" customHeight="1">
       <c r="A247" s="11"/>
-      <c r="B247" s="24" t="s">
+      <c r="B247" s="30" t="s">
         <v>208</v>
       </c>
       <c r="C247" s="17" t="s">
         <v>209</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="21" customHeight="1">
       <c r="A248" s="11"/>
-      <c r="B248" s="24"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="17" t="s">
         <v>210</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="91">
       <c r="A249" s="11"/>
       <c r="B249" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C249" s="17" t="s">
         <v>211</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="26">
       <c r="A250" s="11"/>
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="30" t="s">
         <v>212</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="26">
       <c r="A251" s="11"/>
-      <c r="B251" s="24"/>
+      <c r="B251" s="30"/>
       <c r="C251" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="52">
       <c r="A252" s="11"/>
       <c r="B252" s="1" t="s">
         <v>214</v>
@@ -7234,22 +7312,22 @@
         <v>215</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="39">
       <c r="A253" s="11"/>
       <c r="B253" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="11"/>
       <c r="B254" s="2" t="s">
         <v>217</v>
@@ -7257,31 +7335,31 @@
       <c r="C254" s="17"/>
       <c r="D254" s="11"/>
     </row>
-    <row r="255" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="38.25" customHeight="1">
       <c r="A255" s="11"/>
       <c r="B255" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="52">
       <c r="A256" s="11"/>
       <c r="B256" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="52">
       <c r="A257" s="11"/>
       <c r="B257" s="1" t="s">
         <v>220</v>
@@ -7290,10 +7368,10 @@
         <v>221</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="11"/>
       <c r="B258" s="2" t="s">
         <v>222</v>
@@ -7301,19 +7379,19 @@
       <c r="C258" s="17"/>
       <c r="D258" s="11"/>
     </row>
-    <row r="259" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="52">
       <c r="A259" s="11"/>
       <c r="B259" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="11"/>
       <c r="B260" s="2" t="s">
         <v>224</v>
@@ -7321,7 +7399,7 @@
       <c r="C260" s="17"/>
       <c r="D260" s="11"/>
     </row>
-    <row r="261" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="52">
       <c r="A261" s="11"/>
       <c r="B261" s="1" t="s">
         <v>225</v>
@@ -7330,10 +7408,10 @@
         <v>226</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="39">
       <c r="A262" s="11"/>
       <c r="B262" s="1" t="s">
         <v>227</v>
@@ -7342,22 +7420,22 @@
         <v>228</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="78">
       <c r="A263" s="11"/>
       <c r="B263" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="11"/>
       <c r="B264" s="2" t="s">
         <v>230</v>
@@ -7365,7 +7443,7 @@
       <c r="C264" s="17"/>
       <c r="D264" s="11"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4">
       <c r="A265" s="11"/>
       <c r="B265" s="3" t="s">
         <v>231</v>
@@ -7373,7 +7451,7 @@
       <c r="C265" s="17"/>
       <c r="D265" s="11"/>
     </row>
-    <row r="266" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="26">
       <c r="A266" s="11"/>
       <c r="B266" s="1" t="s">
         <v>232</v>
@@ -7382,10 +7460,10 @@
         <v>233</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="27.75" customHeight="1">
       <c r="A267" s="11"/>
       <c r="B267" s="1" t="s">
         <v>234</v>
@@ -7394,10 +7472,10 @@
         <v>235</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="39">
       <c r="A268" s="11"/>
       <c r="B268" s="1" t="s">
         <v>236</v>
@@ -7406,10 +7484,10 @@
         <v>237</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="11"/>
       <c r="B269" s="3" t="s">
         <v>238</v>
@@ -7417,7 +7495,7 @@
       <c r="C269" s="17"/>
       <c r="D269" s="11"/>
     </row>
-    <row r="270" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="65">
       <c r="A270" s="11"/>
       <c r="B270" s="1" t="s">
         <v>239</v>
@@ -7426,22 +7504,22 @@
         <v>240</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="39">
       <c r="A271" s="11"/>
       <c r="B271" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="11"/>
       <c r="B272" s="3" t="s">
         <v>242</v>
@@ -7449,194 +7527,181 @@
       <c r="C272" s="17"/>
       <c r="D272" s="11"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5">
       <c r="A273" s="11"/>
-      <c r="B273" s="24" t="s">
+      <c r="B273" s="30" t="s">
         <v>243</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="27" customHeight="1">
       <c r="A274" s="11"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="30"/>
       <c r="C274" s="17" t="s">
         <v>244</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="27" customHeight="1">
       <c r="A275" s="11"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="30"/>
       <c r="C275" s="17" t="s">
         <v>245</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="27" customHeight="1">
       <c r="A276" s="11"/>
-      <c r="B276" s="24" t="s">
+      <c r="B276" s="30" t="s">
         <v>246</v>
       </c>
       <c r="C276" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D276" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="52.5" thickBot="1">
+      <c r="A277" s="11"/>
+      <c r="B277" s="31"/>
+      <c r="C277" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D277" s="11" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="11"/>
-      <c r="B277" s="39"/>
-      <c r="C277" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="D277" s="11" t="s">
+    <row r="278" spans="1:5" ht="18.649999999999999" customHeight="1" thickTop="1"/>
+    <row r="279" spans="1:5" ht="60.75" customHeight="1">
+      <c r="A279" s="8"/>
+      <c r="B279" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="C279" s="38"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="9"/>
+      <c r="B280" s="32" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="279" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="C279" s="33"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="9"/>
-      <c r="B280" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="C280" s="40"/>
+      <c r="C280" s="32"/>
       <c r="D280" s="9"/>
       <c r="E280" s="23"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5">
       <c r="A281" s="8"/>
-      <c r="B281" s="35" t="s">
+      <c r="B281" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C281" s="26"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="9"/>
+      <c r="B282" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="C281" s="35"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="9"/>
-      <c r="B282" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C282" s="37"/>
-    </row>
-    <row r="283" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="38" t="s">
+      <c r="C282" s="28"/>
+    </row>
+    <row r="283" spans="1:5" ht="29.15" customHeight="1">
+      <c r="B283" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="C283" s="28"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="8"/>
+      <c r="B284" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="C283" s="37"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="34" t="s">
+      <c r="C284" s="26"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="8"/>
+      <c r="B285" s="25" t="s">
         <v>674</v>
       </c>
-      <c r="C284" s="35"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="8"/>
-      <c r="B285" s="34" t="s">
-        <v>675</v>
-      </c>
-      <c r="C285" s="35"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C285" s="26"/>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="9"/>
-      <c r="B286" s="36"/>
-      <c r="C286" s="37"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B286" s="27"/>
+      <c r="C286" s="28"/>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="9"/>
       <c r="B287" s="15"/>
       <c r="C287" s="22"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B288" s="41"/>
-      <c r="C288" s="41"/>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B289" s="41"/>
-      <c r="C289" s="41"/>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B290" s="41"/>
-      <c r="C290" s="41"/>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B291" s="41"/>
-      <c r="C291" s="41"/>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B292" s="41"/>
-      <c r="C292" s="41"/>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B293" s="41"/>
-      <c r="C293" s="41"/>
+    <row r="288" spans="1:5">
+      <c r="B288" s="24"/>
+      <c r="C288" s="24"/>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" s="24"/>
+      <c r="C289" s="24"/>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" s="24"/>
+      <c r="C290" s="24"/>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" s="24"/>
+      <c r="C291" s="24"/>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="B292" s="24"/>
+      <c r="C292" s="24"/>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" s="24"/>
+      <c r="C293" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="D3:D277" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="95">
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B84:B85"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -7653,39 +7718,52 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -7701,28 +7779,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87FA89-D5D9-429F-844B-B4D0BC8B9A68}">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="32.3984375" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" customWidth="1"/>
+    <col min="1" max="1" width="32.4140625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" t="s">
         <v>687</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>688</v>
       </c>
-      <c r="C1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7730,10 +7808,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7744,7 +7822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7755,7 +7833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7766,7 +7844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7777,7 +7855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7785,10 +7863,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7799,7 +7877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7810,7 +7888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7821,7 +7899,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7832,7 +7910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7840,10 +7918,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7854,7 +7932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7862,10 +7940,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7876,7 +7954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7887,7 +7965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7895,10 +7973,10 @@
         <v>314</v>
       </c>
       <c r="C17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7906,10 +7984,10 @@
         <v>314</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7917,10 +7995,10 @@
         <v>314</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -7931,7 +8009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -7942,7 +8020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -7953,7 +8031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -7961,10 +8039,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -7972,10 +8050,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -7986,7 +8064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -7997,7 +8075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -8008,7 +8086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -8019,7 +8097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -8030,7 +8108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -8041,7 +8119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -8052,7 +8130,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -8063,7 +8141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -8074,7 +8152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -8085,7 +8163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -8096,7 +8174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -8107,7 +8185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -8118,7 +8196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -8129,7 +8207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -8140,7 +8218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -8151,7 +8229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -8159,10 +8237,10 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -8173,7 +8251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -8181,10 +8259,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -8192,10 +8270,10 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -8203,10 +8281,10 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -8217,7 +8295,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8228,7 +8306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -8239,7 +8317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -8250,7 +8328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -8258,10 +8336,10 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -8272,7 +8350,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -8283,7 +8361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -8294,7 +8372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -8305,7 +8383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -8316,7 +8394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -8324,10 +8402,10 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -8335,10 +8413,10 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -8346,10 +8424,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -8357,10 +8435,10 @@
         <v>323</v>
       </c>
       <c r="C59" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -8371,7 +8449,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -8379,10 +8457,10 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -8393,7 +8471,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -8404,7 +8482,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -8412,10 +8490,10 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -8423,10 +8501,10 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -8434,10 +8512,10 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -8448,7 +8526,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -8456,10 +8534,10 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -8467,10 +8545,10 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -8478,10 +8556,10 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -8489,10 +8567,10 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -8500,10 +8578,10 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -8511,10 +8589,10 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -8525,7 +8603,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -8533,10 +8611,10 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -8547,7 +8625,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -8555,10 +8633,10 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -8566,10 +8644,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -8577,10 +8655,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -8588,10 +8666,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -8602,7 +8680,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>74</v>
       </c>
@@ -8613,7 +8691,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -8624,7 +8702,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -8635,7 +8713,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -8643,10 +8721,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -8654,10 +8732,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -8668,7 +8746,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -8679,7 +8757,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -8690,7 +8768,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -8698,10 +8776,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -8712,7 +8790,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -8723,7 +8801,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -8734,7 +8812,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -8745,7 +8823,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -8756,7 +8834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -8767,7 +8845,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -8778,7 +8856,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>93</v>
       </c>
@@ -8789,7 +8867,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -8800,7 +8878,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -8808,10 +8886,10 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -8822,7 +8900,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -8833,7 +8911,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -8841,10 +8919,10 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -8855,7 +8933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -8866,7 +8944,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -8874,10 +8952,10 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>99</v>
       </c>
@@ -8888,7 +8966,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -8896,10 +8974,10 @@
         <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -8907,10 +8985,10 @@
         <v>332</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -8918,10 +8996,10 @@
         <v>334</v>
       </c>
       <c r="C110" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -8932,7 +9010,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -8943,7 +9021,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -8951,10 +9029,10 @@
         <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -8962,10 +9040,10 @@
         <v>107</v>
       </c>
       <c r="C114" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -8973,10 +9051,10 @@
         <v>107</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -8987,7 +9065,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -8998,18 +9076,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>248</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -9017,7 +9095,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>248</v>
       </c>
@@ -9028,7 +9106,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -9039,7 +9117,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>248</v>
       </c>
@@ -9050,7 +9128,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>248</v>
       </c>
@@ -9061,7 +9139,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>248</v>
       </c>
@@ -9069,21 +9147,21 @@
         <v>113</v>
       </c>
       <c r="C124" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C125" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>248</v>
       </c>
@@ -9091,7 +9169,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>248</v>
       </c>
@@ -9102,7 +9180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -9113,7 +9191,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>248</v>
       </c>
@@ -9124,18 +9202,18 @@
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>121</v>
       </c>
       <c r="B130" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -9143,10 +9221,10 @@
         <v>122</v>
       </c>
       <c r="C131" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -9154,10 +9232,10 @@
         <v>123</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -9165,10 +9243,10 @@
         <v>124</v>
       </c>
       <c r="C133" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -9176,10 +9254,10 @@
         <v>124</v>
       </c>
       <c r="C134" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -9190,7 +9268,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>121</v>
       </c>
@@ -9201,7 +9279,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -9209,10 +9287,10 @@
         <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>121</v>
       </c>
@@ -9220,10 +9298,10 @@
         <v>128</v>
       </c>
       <c r="C138" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>121</v>
       </c>
@@ -9231,10 +9309,10 @@
         <v>128</v>
       </c>
       <c r="C139" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>121</v>
       </c>
@@ -9242,10 +9320,10 @@
         <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>121</v>
       </c>
@@ -9256,7 +9334,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>121</v>
       </c>
@@ -9264,21 +9342,21 @@
         <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>121</v>
       </c>
       <c r="B143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C143" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -9289,7 +9367,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -9300,7 +9378,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>133</v>
       </c>
@@ -9311,7 +9389,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>133</v>
       </c>
@@ -9322,7 +9400,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>133</v>
       </c>
@@ -9330,10 +9408,10 @@
         <v>138</v>
       </c>
       <c r="C148" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -9344,7 +9422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>133</v>
       </c>
@@ -9352,10 +9430,10 @@
         <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>133</v>
       </c>
@@ -9363,10 +9441,10 @@
         <v>139</v>
       </c>
       <c r="C151" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>133</v>
       </c>
@@ -9374,10 +9452,10 @@
         <v>139</v>
       </c>
       <c r="C152" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>133</v>
       </c>
@@ -9385,10 +9463,10 @@
         <v>141</v>
       </c>
       <c r="C153" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>133</v>
       </c>
@@ -9396,10 +9474,10 @@
         <v>141</v>
       </c>
       <c r="C154" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>133</v>
       </c>
@@ -9410,7 +9488,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>133</v>
       </c>
@@ -9418,10 +9496,10 @@
         <v>142</v>
       </c>
       <c r="C156" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>133</v>
       </c>
@@ -9429,32 +9507,32 @@
         <v>143</v>
       </c>
       <c r="C157" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>133</v>
       </c>
       <c r="B158" t="s">
+        <v>345</v>
+      </c>
+      <c r="C158" t="s">
         <v>346</v>
       </c>
-      <c r="C158" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>133</v>
       </c>
       <c r="B159" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C159" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>133</v>
       </c>
@@ -9462,18 +9540,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>145</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C161" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>145</v>
       </c>
@@ -9484,7 +9562,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>145</v>
       </c>
@@ -9495,7 +9573,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -9503,10 +9581,10 @@
         <v>147</v>
       </c>
       <c r="C164" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>145</v>
       </c>
@@ -9514,10 +9592,10 @@
         <v>147</v>
       </c>
       <c r="C165" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>145</v>
       </c>
@@ -9528,7 +9606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>145</v>
       </c>
@@ -9536,10 +9614,10 @@
         <v>148</v>
       </c>
       <c r="C167" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>145</v>
       </c>
@@ -9547,10 +9625,10 @@
         <v>148</v>
       </c>
       <c r="C168" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>145</v>
       </c>
@@ -9561,7 +9639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>145</v>
       </c>
@@ -9572,7 +9650,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>145</v>
       </c>
@@ -9580,10 +9658,10 @@
         <v>154</v>
       </c>
       <c r="C171" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>145</v>
       </c>
@@ -9591,10 +9669,10 @@
         <v>155</v>
       </c>
       <c r="C172" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>145</v>
       </c>
@@ -9602,10 +9680,10 @@
         <v>156</v>
       </c>
       <c r="C173" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>145</v>
       </c>
@@ -9613,10 +9691,10 @@
         <v>157</v>
       </c>
       <c r="C174" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>145</v>
       </c>
@@ -9624,12 +9702,12 @@
         <v>158</v>
       </c>
       <c r="C175" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B176" t="s">
         <v>159</v>
@@ -9638,20 +9716,20 @@
         <v>160</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B177" t="s">
         <v>159</v>
       </c>
       <c r="C177" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B178" t="s">
         <v>159</v>
@@ -9660,62 +9738,62 @@
         <v>161</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B179" t="s">
         <v>162</v>
       </c>
       <c r="C179" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B180" t="s">
         <v>162</v>
       </c>
       <c r="C180" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B181" t="s">
         <v>163</v>
       </c>
       <c r="C181" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B182" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C182" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B183" t="s">
         <v>164</v>
       </c>
       <c r="C183" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>165</v>
       </c>
@@ -9723,10 +9801,10 @@
         <v>166</v>
       </c>
       <c r="C184" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -9734,10 +9812,10 @@
         <v>166</v>
       </c>
       <c r="C185" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>165</v>
       </c>
@@ -9745,10 +9823,10 @@
         <v>167</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -9759,7 +9837,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>165</v>
       </c>
@@ -9770,29 +9848,29 @@
         <v>294</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>165</v>
       </c>
       <c r="B189" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C189" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>165</v>
       </c>
       <c r="B190" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C190" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>165</v>
       </c>
@@ -9803,7 +9881,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -9814,7 +9892,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>165</v>
       </c>
@@ -9822,23 +9900,23 @@
         <v>172</v>
       </c>
       <c r="C193" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>165</v>
       </c>
       <c r="B194" t="s">
+        <v>351</v>
+      </c>
+      <c r="C194" t="s">
         <v>352</v>
       </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>354</v>
       </c>
       <c r="B195" t="s">
         <v>173</v>
@@ -9847,9 +9925,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B196" t="s">
         <v>173</v>
@@ -9858,9 +9936,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B197" t="s">
         <v>174</v>
@@ -9869,9 +9947,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B198" t="s">
         <v>175</v>
@@ -9880,9 +9958,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B199" t="s">
         <v>176</v>
@@ -9891,31 +9969,31 @@
         <v>302</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B200" t="s">
         <v>176</v>
       </c>
       <c r="C200" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B201" t="s">
         <v>176</v>
       </c>
       <c r="C201" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B202" t="s">
         <v>177</v>
@@ -9924,9 +10002,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
         <v>178</v>
@@ -9935,9 +10013,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B204" t="s">
         <v>180</v>
@@ -9946,9 +10024,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B205" t="s">
         <v>181</v>
@@ -9957,75 +10035,75 @@
         <v>182</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B206" t="s">
         <v>183</v>
       </c>
       <c r="C206" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B207" t="s">
         <v>183</v>
       </c>
       <c r="C207" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
         <v>184</v>
       </c>
       <c r="C208" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B209" t="s">
         <v>184</v>
       </c>
       <c r="C209" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B210" t="s">
         <v>185</v>
       </c>
       <c r="C210" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B211" t="s">
         <v>185</v>
       </c>
       <c r="C211" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B212" t="s">
         <v>186</v>
@@ -10034,9 +10112,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B213" t="s">
         <v>187</v>
@@ -10045,9 +10123,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B214" t="s">
         <v>187</v>
@@ -10056,42 +10134,42 @@
         <v>307</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B215" t="s">
         <v>187</v>
       </c>
       <c r="C215" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B216" t="s">
         <v>187</v>
       </c>
       <c r="C216" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B217" t="s">
         <v>188</v>
       </c>
       <c r="C217" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B218" t="s">
         <v>188</v>
@@ -10100,31 +10178,31 @@
         <v>308</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B219" t="s">
         <v>188</v>
       </c>
       <c r="C219" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B220" t="s">
         <v>189</v>
       </c>
       <c r="C220" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B221" t="s">
         <v>189</v>
@@ -10133,20 +10211,20 @@
         <v>309</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B222" t="s">
         <v>189</v>
       </c>
       <c r="C222" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B223" t="s">
         <v>190</v>
@@ -10155,9 +10233,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B224" t="s">
         <v>190</v>
@@ -10166,42 +10244,42 @@
         <v>192</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B225" t="s">
         <v>193</v>
       </c>
       <c r="C225" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B226" t="s">
         <v>193</v>
       </c>
       <c r="C226" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B227" t="s">
         <v>194</v>
       </c>
       <c r="C227" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B228" t="s">
         <v>194</v>
@@ -10210,20 +10288,20 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B229" t="s">
         <v>196</v>
       </c>
       <c r="C229" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B230" t="s">
         <v>196</v>
@@ -10232,9 +10310,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B231" t="s">
         <v>198</v>
@@ -10243,31 +10321,31 @@
         <v>199</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B232" t="s">
         <v>200</v>
       </c>
       <c r="C232" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B233" t="s">
         <v>201</v>
       </c>
       <c r="C233" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B234" t="s">
         <v>201</v>
@@ -10276,9 +10354,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B235" t="s">
         <v>203</v>
@@ -10287,9 +10365,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B236" t="s">
         <v>205</v>
@@ -10298,9 +10376,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B237" t="s">
         <v>208</v>
@@ -10309,9 +10387,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B238" t="s">
         <v>208</v>
@@ -10320,31 +10398,31 @@
         <v>210</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>361</v>
+      </c>
+      <c r="B239" t="s">
         <v>362</v>
-      </c>
-      <c r="B239" t="s">
-        <v>363</v>
       </c>
       <c r="C239" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B240" t="s">
         <v>212</v>
       </c>
       <c r="C240" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B241" t="s">
         <v>212</v>
@@ -10353,9 +10431,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B242" t="s">
         <v>214</v>
@@ -10364,42 +10442,42 @@
         <v>215</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B243" t="s">
         <v>216</v>
       </c>
       <c r="C243" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B244" t="s">
         <v>218</v>
       </c>
       <c r="C244" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
         <v>219</v>
       </c>
       <c r="C245" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B246" t="s">
         <v>220</v>
@@ -10408,20 +10486,20 @@
         <v>221</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B247" t="s">
         <v>223</v>
       </c>
       <c r="C247" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B248" t="s">
         <v>225</v>
@@ -10430,9 +10508,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B249" t="s">
         <v>227</v>
@@ -10441,20 +10519,20 @@
         <v>228</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B250" t="s">
         <v>229</v>
       </c>
       <c r="C250" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B251" t="s">
         <v>232</v>
@@ -10463,9 +10541,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B252" t="s">
         <v>234</v>
@@ -10474,9 +10552,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B253" t="s">
         <v>236</v>
@@ -10485,9 +10563,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B254" t="s">
         <v>239</v>
@@ -10496,31 +10574,31 @@
         <v>240</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B255" t="s">
         <v>241</v>
       </c>
       <c r="C255" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B256" t="s">
         <v>243</v>
       </c>
       <c r="C256" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B257" t="s">
         <v>243</v>
@@ -10529,9 +10607,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B258" t="s">
         <v>243</v>
@@ -10540,9 +10618,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B259" t="s">
         <v>246</v>
@@ -10551,18 +10629,19 @@
         <v>247</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B260" t="s">
         <v>246</v>
       </c>
       <c r="C260" t="s">
-        <v>707</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/meas/SDG/sdg.xlsx
+++ b/input/meas/SDG/sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLU-SU\Documents\GitHub\IPBES-Data\IPBES_Data_Indicators\input\meas\SDG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E2F56-CE2B-4DAD-99FD-36DF695F7A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0473A01E-656B-4DB4-B161-C80C0BB525DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2730" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A.RES.71.313 Annex" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="756">
   <si>
     <t>Goal 1. End poverty in all its forms everywhere</t>
   </si>
@@ -3832,6 +3832,12 @@
   </si>
   <si>
     <t>5.2.2 Proportion of women and girls aged 15 years and older subjected to sexual violence by persons other than an intimate partner in the previous 12 months, by age and place of occurrence</t>
+  </si>
+  <si>
+    <t>notes_ys</t>
+  </si>
+  <si>
+    <t>split</t>
   </si>
 </sst>
 </file>
@@ -4120,34 +4126,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4165,14 +4156,29 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4519,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E293"/>
   <sheetViews>
-    <sheetView topLeftCell="B122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="B168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -4530,21 +4536,21 @@
     <col min="3" max="3" width="49.83203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" customHeight="1">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1">
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="37"/>
-    </row>
-    <row r="3" spans="1:4" ht="26">
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="26">
       <c r="A3" s="12"/>
       <c r="B3" s="14" t="s">
         <v>312</v>
@@ -4555,15 +4561,18 @@
       <c r="D3" s="12" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" ht="39">
+    <row r="5" spans="1:5" ht="39">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -4575,9 +4584,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26">
+    <row r="6" spans="1:5" ht="26">
       <c r="A6" s="11"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -4587,9 +4596,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26">
+    <row r="7" spans="1:5" ht="26">
       <c r="A7" s="11"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
@@ -4597,7 +4606,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="52">
+    <row r="8" spans="1:5" ht="52">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -4609,9 +4618,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26">
+    <row r="9" spans="1:5" ht="26">
       <c r="A9" s="11"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -4621,9 +4630,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39">
+    <row r="10" spans="1:5" ht="39">
       <c r="A10" s="11"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="17" t="s">
         <v>633</v>
       </c>
@@ -4631,9 +4640,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26">
+    <row r="11" spans="1:5" ht="26">
       <c r="A11" s="11"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -4643,9 +4652,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26">
+    <row r="12" spans="1:5" ht="26">
       <c r="A12" s="11"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
@@ -4653,9 +4662,9 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39">
+    <row r="13" spans="1:5" ht="39">
       <c r="A13" s="11"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="17" t="s">
         <v>313</v>
       </c>
@@ -4663,9 +4672,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39">
+    <row r="14" spans="1:5" ht="39">
       <c r="A14" s="11"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
@@ -4673,9 +4682,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39">
+    <row r="15" spans="1:5" ht="39">
       <c r="A15" s="11"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -4685,9 +4694,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26">
+    <row r="16" spans="1:5" ht="26">
       <c r="A16" s="11"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
@@ -4709,15 +4718,15 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -4729,7 +4738,7 @@
     </row>
     <row r="20" spans="1:4" ht="29.25" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="17" t="s">
         <v>19</v>
       </c>
@@ -4739,7 +4748,7 @@
     </row>
     <row r="21" spans="1:4" ht="40.5" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="29" t="s">
         <v>314</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4751,7 +4760,7 @@
     </row>
     <row r="22" spans="1:4" ht="52.5" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="17" t="s">
         <v>316</v>
       </c>
@@ -4761,7 +4770,7 @@
     </row>
     <row r="23" spans="1:4" ht="26">
       <c r="A23" s="11"/>
-      <c r="B23" s="34"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="17" t="s">
         <v>394</v>
       </c>
@@ -4771,7 +4780,7 @@
     </row>
     <row r="24" spans="1:4" ht="42" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -4783,7 +4792,7 @@
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="30"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="17" t="s">
         <v>22</v>
       </c>
@@ -4805,7 +4814,7 @@
     </row>
     <row r="27" spans="1:4" ht="38.25" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -4817,7 +4826,7 @@
     </row>
     <row r="28" spans="1:4" ht="38.25" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="17" t="s">
         <v>374</v>
       </c>
@@ -4827,7 +4836,7 @@
     </row>
     <row r="29" spans="1:4" ht="38.25" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -4839,7 +4848,7 @@
     </row>
     <row r="30" spans="1:4" ht="38.25" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="17" t="s">
         <v>28</v>
       </c>
@@ -4873,15 +4882,15 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11"/>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -4893,7 +4902,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="17" t="s">
         <v>36</v>
       </c>
@@ -4903,7 +4912,7 @@
     </row>
     <row r="36" spans="1:4" ht="38.25" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="24" t="s">
         <v>317</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4915,7 +4924,7 @@
     </row>
     <row r="37" spans="1:4" ht="38.25" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="17" t="s">
         <v>37</v>
       </c>
@@ -4925,7 +4934,7 @@
     </row>
     <row r="38" spans="1:4" ht="27.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4937,7 +4946,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="17" t="s">
         <v>40</v>
       </c>
@@ -4947,7 +4956,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="17" t="s">
         <v>41</v>
       </c>
@@ -4957,7 +4966,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="17" t="s">
         <v>42</v>
       </c>
@@ -4967,7 +4976,7 @@
     </row>
     <row r="42" spans="1:4" ht="26">
       <c r="A42" s="11"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="17" t="s">
         <v>43</v>
       </c>
@@ -4977,7 +4986,7 @@
     </row>
     <row r="43" spans="1:4" ht="26">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="24" t="s">
         <v>319</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -4989,7 +4998,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="17" t="s">
         <v>45</v>
       </c>
@@ -4999,7 +5008,7 @@
     </row>
     <row r="45" spans="1:4" ht="39">
       <c r="A45" s="11"/>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -5011,7 +5020,7 @@
     </row>
     <row r="46" spans="1:4" ht="26">
       <c r="A46" s="11"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="17" t="s">
         <v>375</v>
       </c>
@@ -5031,9 +5040,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="26">
+    <row r="48" spans="1:4" ht="39">
       <c r="A48" s="11"/>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -5045,7 +5054,7 @@
     </row>
     <row r="49" spans="1:4" ht="27.75" customHeight="1">
       <c r="A49" s="11"/>
-      <c r="B49" s="30"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="17" t="s">
         <v>321</v>
       </c>
@@ -5055,7 +5064,7 @@
     </row>
     <row r="50" spans="1:4" ht="66" customHeight="1">
       <c r="A50" s="11"/>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -5067,7 +5076,7 @@
     </row>
     <row r="51" spans="1:4" ht="27.75" customHeight="1">
       <c r="A51" s="11"/>
-      <c r="B51" s="30"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="17" t="s">
         <v>249</v>
       </c>
@@ -5077,7 +5086,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="11"/>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="17" t="s">
@@ -5089,7 +5098,7 @@
     </row>
     <row r="53" spans="1:4" ht="39">
       <c r="A53" s="11"/>
-      <c r="B53" s="30"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="17" t="s">
         <v>54</v>
       </c>
@@ -5099,7 +5108,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="11"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="17" t="s">
         <v>55</v>
       </c>
@@ -5121,7 +5130,7 @@
     </row>
     <row r="56" spans="1:4" ht="38.25" customHeight="1">
       <c r="A56" s="11"/>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="24" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="17" t="s">
@@ -5133,7 +5142,7 @@
     </row>
     <row r="57" spans="1:4" ht="38.25" customHeight="1">
       <c r="A57" s="11"/>
-      <c r="B57" s="30"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="17" t="s">
         <v>58</v>
       </c>
@@ -5143,7 +5152,7 @@
     </row>
     <row r="58" spans="1:4" ht="38.25" customHeight="1">
       <c r="A58" s="11"/>
-      <c r="B58" s="30"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="17" t="s">
         <v>59</v>
       </c>
@@ -5165,7 +5174,7 @@
     </row>
     <row r="60" spans="1:4" ht="26">
       <c r="A60" s="11"/>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="17" t="s">
@@ -5177,7 +5186,7 @@
     </row>
     <row r="61" spans="1:4" ht="26">
       <c r="A61" s="11"/>
-      <c r="B61" s="34"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="17" t="s">
         <v>652</v>
       </c>
@@ -5187,15 +5196,15 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="7"/>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="40"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="52">
       <c r="A63" s="7"/>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C63" s="17" t="s">
@@ -5207,7 +5216,7 @@
     </row>
     <row r="64" spans="1:4" ht="26">
       <c r="A64" s="11"/>
-      <c r="B64" s="34"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="17" t="s">
         <v>395</v>
       </c>
@@ -5217,7 +5226,7 @@
     </row>
     <row r="65" spans="1:4" ht="39">
       <c r="A65" s="11"/>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="24" t="s">
         <v>323</v>
       </c>
       <c r="C65" s="17" t="s">
@@ -5229,7 +5238,7 @@
     </row>
     <row r="66" spans="1:4" ht="26">
       <c r="A66" s="11"/>
-      <c r="B66" s="30"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="17" t="s">
         <v>250</v>
       </c>
@@ -5335,13 +5344,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6"/>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="33"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:4" ht="26">
+    <row r="76" spans="1:4" ht="39">
       <c r="A76" s="11"/>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -5355,7 +5364,7 @@
     </row>
     <row r="77" spans="1:4" ht="53.25" customHeight="1">
       <c r="A77" s="11"/>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="17" t="s">
@@ -5367,7 +5376,7 @@
     </row>
     <row r="78" spans="1:4" ht="40.5" customHeight="1">
       <c r="A78" s="11"/>
-      <c r="B78" s="30"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="17" t="s">
         <v>326</v>
       </c>
@@ -5377,7 +5386,7 @@
     </row>
     <row r="79" spans="1:4" ht="27.75" customHeight="1">
       <c r="A79" s="11"/>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5389,7 +5398,7 @@
     </row>
     <row r="80" spans="1:4" ht="27.75" customHeight="1">
       <c r="A80" s="11"/>
-      <c r="B80" s="30"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="17" t="s">
         <v>668</v>
       </c>
@@ -5397,7 +5406,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="52">
+    <row r="81" spans="1:5" ht="52">
       <c r="A81" s="11"/>
       <c r="B81" s="1" t="s">
         <v>78</v>
@@ -5409,9 +5418,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27" customHeight="1">
+    <row r="82" spans="1:5" ht="27" customHeight="1">
       <c r="A82" s="11"/>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -5421,9 +5430,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="11"/>
-      <c r="B83" s="30"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="17" t="s">
         <v>255</v>
       </c>
@@ -5431,9 +5440,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="40.5" customHeight="1">
+    <row r="84" spans="1:5" ht="40.5" customHeight="1">
       <c r="A84" s="11"/>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="17" t="s">
@@ -5443,9 +5452,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="40.5" customHeight="1">
+    <row r="85" spans="1:5" ht="40.5" customHeight="1">
       <c r="A85" s="11"/>
-      <c r="B85" s="30"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="17" t="s">
         <v>329</v>
       </c>
@@ -5453,9 +5462,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="39">
+    <row r="86" spans="1:5" ht="39">
       <c r="A86" s="11"/>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="17" t="s">
@@ -5464,10 +5473,13 @@
       <c r="D86" s="11" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="39">
+      <c r="E86" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="39">
       <c r="A87" s="11"/>
-      <c r="B87" s="30"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="17" t="s">
         <v>256</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="26">
+    <row r="88" spans="1:5" ht="26">
       <c r="A88" s="11"/>
       <c r="B88" s="1" t="s">
         <v>82</v>
@@ -5487,7 +5499,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="39">
+    <row r="89" spans="1:5" ht="39">
       <c r="A89" s="11"/>
       <c r="B89" s="1" t="s">
         <v>83</v>
@@ -5499,15 +5511,15 @@
         <v>483</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="6"/>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="33"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="11"/>
     </row>
-    <row r="91" spans="1:4" ht="26">
+    <row r="91" spans="1:5" ht="26">
       <c r="A91" s="11"/>
       <c r="B91" s="1" t="s">
         <v>85</v>
@@ -5519,7 +5531,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="39">
+    <row r="92" spans="1:5" ht="39">
       <c r="A92" s="11"/>
       <c r="B92" s="1" t="s">
         <v>86</v>
@@ -5531,9 +5543,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="38.25" customHeight="1">
+    <row r="93" spans="1:5" ht="38.25" customHeight="1">
       <c r="A93" s="11"/>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C93" s="17" t="s">
@@ -5543,9 +5555,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="38.25" customHeight="1">
+    <row r="94" spans="1:5" ht="38.25" customHeight="1">
       <c r="A94" s="11"/>
-      <c r="B94" s="39"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="18" t="s">
         <v>260</v>
       </c>
@@ -5553,9 +5565,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="38.25" customHeight="1">
+    <row r="95" spans="1:5" ht="38.25" customHeight="1">
       <c r="A95" s="11"/>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="28" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="18" t="s">
@@ -5565,9 +5577,9 @@
         <v>488</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="38.25" customHeight="1">
+    <row r="96" spans="1:5" ht="38.25" customHeight="1">
       <c r="A96" s="11"/>
-      <c r="B96" s="39"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="18" t="s">
         <v>262</v>
       </c>
@@ -5577,7 +5589,7 @@
     </row>
     <row r="97" spans="1:4" ht="27.75" customHeight="1">
       <c r="A97" s="11"/>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -5589,7 +5601,7 @@
     </row>
     <row r="98" spans="1:4" ht="27" customHeight="1">
       <c r="A98" s="11"/>
-      <c r="B98" s="30"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="17" t="s">
         <v>263</v>
       </c>
@@ -5635,15 +5647,15 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6"/>
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="33"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="11"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="11"/>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="24" t="s">
         <v>94</v>
       </c>
       <c r="C103" s="17" t="s">
@@ -5655,7 +5667,7 @@
     </row>
     <row r="104" spans="1:4" ht="27" customHeight="1">
       <c r="A104" s="11"/>
-      <c r="B104" s="30"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="17" t="s">
         <v>268</v>
       </c>
@@ -5713,10 +5725,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="6"/>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="33"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" ht="39">
@@ -5755,9 +5767,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="38.25" customHeight="1">
+    <row r="113" spans="1:5" ht="38.25" customHeight="1">
       <c r="A113" s="11"/>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="24" t="s">
         <v>102</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -5767,9 +5779,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="38.25" customHeight="1">
+    <row r="114" spans="1:5" ht="38.25" customHeight="1">
       <c r="A114" s="11"/>
-      <c r="B114" s="30"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="17" t="s">
         <v>273</v>
       </c>
@@ -5777,9 +5789,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="27" customHeight="1">
+    <row r="115" spans="1:5" ht="27" customHeight="1">
       <c r="A115" s="11"/>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C115" s="17" t="s">
@@ -5789,9 +5801,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" s="11"/>
-      <c r="B116" s="30"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="17" t="s">
         <v>274</v>
       </c>
@@ -5799,7 +5811,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="27" customHeight="1">
+    <row r="117" spans="1:5" ht="27" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="1" t="s">
         <v>105</v>
@@ -5811,7 +5823,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="52">
+    <row r="118" spans="1:5" ht="52">
       <c r="A118" s="11"/>
       <c r="B118" s="1" t="s">
         <v>332</v>
@@ -5823,9 +5835,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="27" customHeight="1">
+    <row r="119" spans="1:5" ht="27" customHeight="1">
       <c r="A119" s="11"/>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="24" t="s">
         <v>334</v>
       </c>
       <c r="C119" s="17" t="s">
@@ -5835,9 +5847,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="52">
+    <row r="120" spans="1:5" ht="52">
       <c r="A120" s="11"/>
-      <c r="B120" s="30"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="17" t="s">
         <v>335</v>
       </c>
@@ -5845,7 +5857,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="26">
+    <row r="121" spans="1:5" ht="26">
       <c r="A121" s="11"/>
       <c r="B121" s="1" t="s">
         <v>106</v>
@@ -5857,9 +5869,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="39">
+    <row r="122" spans="1:5" ht="39">
       <c r="A122" s="11"/>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C122" s="17" t="s">
@@ -5868,10 +5880,13 @@
       <c r="D122" s="11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="39">
+      <c r="E122" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="39">
       <c r="A123" s="11"/>
-      <c r="B123" s="30"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="17" t="s">
         <v>751</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="52">
+    <row r="124" spans="1:5" ht="52">
       <c r="A124" s="11"/>
       <c r="B124" s="1" t="s">
         <v>108</v>
@@ -5891,7 +5906,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="39.75" customHeight="1">
+    <row r="125" spans="1:5" ht="39.75" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="1" t="s">
         <v>109</v>
@@ -5903,17 +5918,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="A126" s="6"/>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C126" s="33"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="11"/>
     </row>
-    <row r="127" spans="1:4" ht="38.25" customHeight="1">
+    <row r="127" spans="1:5" ht="38.25" customHeight="1">
       <c r="A127" s="11"/>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="24" t="s">
         <v>336</v>
       </c>
       <c r="C127" s="17" t="s">
@@ -5923,9 +5938,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="38.25" customHeight="1">
+    <row r="128" spans="1:5" ht="38.25" customHeight="1">
       <c r="A128" s="11"/>
-      <c r="B128" s="30"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="17" t="s">
         <v>278</v>
       </c>
@@ -5935,7 +5950,7 @@
     </row>
     <row r="129" spans="1:4" ht="26">
       <c r="A129" s="11"/>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="24" t="s">
         <v>111</v>
       </c>
       <c r="C129" s="17" t="s">
@@ -5947,7 +5962,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="11"/>
-      <c r="B130" s="30"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="17" t="s">
         <v>280</v>
       </c>
@@ -5957,7 +5972,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="11"/>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="24" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="17" t="s">
@@ -5969,7 +5984,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11"/>
-      <c r="B132" s="30"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="17" t="s">
         <v>282</v>
       </c>
@@ -5991,7 +6006,7 @@
     </row>
     <row r="134" spans="1:4" ht="38.25" customHeight="1">
       <c r="A134" s="11"/>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="24" t="s">
         <v>337</v>
       </c>
       <c r="C134" s="17" t="s">
@@ -6003,7 +6018,7 @@
     </row>
     <row r="135" spans="1:4" ht="38.25" customHeight="1">
       <c r="A135" s="11"/>
-      <c r="B135" s="30"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="17" t="s">
         <v>116</v>
       </c>
@@ -6049,10 +6064,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="6"/>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C139" s="33"/>
+      <c r="C139" s="25"/>
       <c r="D139" s="11"/>
     </row>
     <row r="140" spans="1:4" ht="39">
@@ -6093,7 +6108,7 @@
     </row>
     <row r="143" spans="1:4" ht="26.25" customHeight="1">
       <c r="A143" s="11"/>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C143" s="17" t="s">
@@ -6105,7 +6120,7 @@
     </row>
     <row r="144" spans="1:4" ht="36" customHeight="1">
       <c r="A144" s="11"/>
-      <c r="B144" s="34"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="17" t="s">
         <v>667</v>
       </c>
@@ -6139,7 +6154,7 @@
     </row>
     <row r="147" spans="1:4" ht="27.75" customHeight="1">
       <c r="A147" s="11"/>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="24" t="s">
         <v>128</v>
       </c>
       <c r="C147" s="17" t="s">
@@ -6149,9 +6164,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="26">
+    <row r="148" spans="1:4" ht="39">
       <c r="A148" s="11"/>
-      <c r="B148" s="30"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="17" t="s">
         <v>669</v>
       </c>
@@ -6161,7 +6176,7 @@
     </row>
     <row r="149" spans="1:4" ht="27.75" customHeight="1">
       <c r="A149" s="11"/>
-      <c r="B149" s="30"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="17" t="s">
         <v>655</v>
       </c>
@@ -6171,7 +6186,7 @@
     </row>
     <row r="150" spans="1:4" ht="27" customHeight="1">
       <c r="A150" s="11"/>
-      <c r="B150" s="30"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="17" t="s">
         <v>396</v>
       </c>
@@ -6217,10 +6232,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6"/>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C154" s="33"/>
+      <c r="C154" s="25"/>
       <c r="D154" s="11"/>
     </row>
     <row r="155" spans="1:4" ht="26">
@@ -6249,7 +6264,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="11"/>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C157" s="17" t="s">
@@ -6261,7 +6276,7 @@
     </row>
     <row r="158" spans="1:4" ht="40.5" customHeight="1">
       <c r="A158" s="11"/>
-      <c r="B158" s="30"/>
+      <c r="B158" s="24"/>
       <c r="C158" s="17" t="s">
         <v>137</v>
       </c>
@@ -6283,7 +6298,7 @@
     </row>
     <row r="160" spans="1:4" ht="28.5" customHeight="1">
       <c r="A160" s="11"/>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="24" t="s">
         <v>139</v>
       </c>
       <c r="C160" s="17" t="s">
@@ -6293,9 +6308,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="26">
+    <row r="161" spans="1:5" ht="26">
       <c r="A161" s="11"/>
-      <c r="B161" s="30"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="17" t="s">
         <v>661</v>
       </c>
@@ -6303,19 +6318,22 @@
         <v>663</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="26">
+    <row r="162" spans="1:5" ht="26">
       <c r="A162" s="11"/>
-      <c r="B162" s="30"/>
+      <c r="B162" s="24"/>
       <c r="C162" s="17" t="s">
         <v>660</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="26">
+      <c r="E162" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="26">
       <c r="A163" s="11"/>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="24" t="s">
         <v>141</v>
       </c>
       <c r="C163" s="17" t="s">
@@ -6325,9 +6343,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="27" customHeight="1">
+    <row r="164" spans="1:5" ht="27" customHeight="1">
       <c r="A164" s="11"/>
-      <c r="B164" s="30"/>
+      <c r="B164" s="24"/>
       <c r="C164" s="17" t="s">
         <v>344</v>
       </c>
@@ -6335,9 +6353,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="27" customHeight="1">
+    <row r="165" spans="1:5" ht="27" customHeight="1">
       <c r="A165" s="11"/>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C165" s="17" t="s">
@@ -6347,9 +6365,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="39">
+    <row r="166" spans="1:5" ht="39">
       <c r="A166" s="11"/>
-      <c r="B166" s="30"/>
+      <c r="B166" s="24"/>
       <c r="C166" s="17" t="s">
         <v>680</v>
       </c>
@@ -6357,7 +6375,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="52">
+    <row r="167" spans="1:5" ht="52">
       <c r="A167" s="11"/>
       <c r="B167" s="1" t="s">
         <v>143</v>
@@ -6369,9 +6387,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="39">
+    <row r="168" spans="1:5" ht="39">
       <c r="A168" s="11"/>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="24" t="s">
         <v>345</v>
       </c>
       <c r="C168" s="17" t="s">
@@ -6381,9 +6399,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="39">
+    <row r="169" spans="1:5" ht="39">
       <c r="A169" s="11"/>
-      <c r="B169" s="30"/>
+      <c r="B169" s="24"/>
       <c r="C169" s="17" t="s">
         <v>290</v>
       </c>
@@ -6391,7 +6409,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="52">
+    <row r="170" spans="1:5" ht="52">
       <c r="A170" s="11"/>
       <c r="B170" s="1" t="s">
         <v>144</v>
@@ -6401,15 +6419,15 @@
       </c>
       <c r="D170" s="11"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5">
       <c r="A171" s="6"/>
-      <c r="B171" s="33" t="s">
+      <c r="B171" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C171" s="33"/>
+      <c r="C171" s="25"/>
       <c r="D171" s="11"/>
     </row>
-    <row r="172" spans="1:4" ht="52">
+    <row r="172" spans="1:5" ht="52">
       <c r="A172" s="11"/>
       <c r="B172" s="1" t="s">
         <v>347</v>
@@ -6421,9 +6439,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="28.5" customHeight="1">
+    <row r="173" spans="1:5" ht="28.5" customHeight="1">
       <c r="A173" s="11"/>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="24" t="s">
         <v>146</v>
       </c>
       <c r="C173" s="17" t="s">
@@ -6433,9 +6451,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="27" customHeight="1">
+    <row r="174" spans="1:5" ht="27" customHeight="1">
       <c r="A174" s="11"/>
-      <c r="B174" s="30"/>
+      <c r="B174" s="24"/>
       <c r="C174" s="17" t="s">
         <v>292</v>
       </c>
@@ -6443,7 +6461,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="39">
+    <row r="175" spans="1:5" ht="39">
       <c r="A175" s="11"/>
       <c r="B175" s="1" t="s">
         <v>147</v>
@@ -6454,10 +6472,13 @@
       <c r="D175" s="11" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="53.25" customHeight="1">
+      <c r="E175" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="53.25" customHeight="1">
       <c r="A176" s="11"/>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="24" t="s">
         <v>148</v>
       </c>
       <c r="C176" s="17" t="s">
@@ -6467,17 +6488,20 @@
         <v>555</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="64.400000000000006" customHeight="1">
+    <row r="177" spans="1:5" ht="64.400000000000006" customHeight="1">
       <c r="A177" s="11"/>
-      <c r="B177" s="30"/>
+      <c r="B177" s="24"/>
       <c r="C177" s="17" t="s">
         <v>643</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="26">
+      <c r="E177" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="26">
       <c r="A178" s="11"/>
       <c r="B178" s="1" t="s">
         <v>150</v>
@@ -6489,7 +6513,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="39">
+    <row r="179" spans="1:5" ht="39">
       <c r="A179" s="11"/>
       <c r="B179" s="1" t="s">
         <v>152</v>
@@ -6501,7 +6525,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="26">
+    <row r="180" spans="1:5" ht="26">
       <c r="A180" s="11"/>
       <c r="B180" s="1" t="s">
         <v>154</v>
@@ -6513,7 +6537,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="52.5" customHeight="1">
+    <row r="181" spans="1:5" ht="52.5" customHeight="1">
       <c r="A181" s="11"/>
       <c r="B181" s="1" t="s">
         <v>155</v>
@@ -6525,7 +6549,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="40.5" customHeight="1">
+    <row r="182" spans="1:5" ht="40.5" customHeight="1">
       <c r="A182" s="11"/>
       <c r="B182" s="1" t="s">
         <v>156</v>
@@ -6537,7 +6561,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="39">
+    <row r="183" spans="1:5" ht="39">
       <c r="A183" s="11"/>
       <c r="B183" s="1" t="s">
         <v>157</v>
@@ -6549,7 +6573,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="104">
+    <row r="184" spans="1:5" ht="104">
       <c r="A184" s="11"/>
       <c r="B184" s="1" t="s">
         <v>158</v>
@@ -6561,17 +6585,17 @@
         <v>560</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="A185" s="6"/>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="C185" s="33"/>
+      <c r="C185" s="25"/>
       <c r="D185" s="11"/>
     </row>
-    <row r="186" spans="1:4" ht="27" customHeight="1">
+    <row r="186" spans="1:5" ht="27" customHeight="1">
       <c r="A186" s="11"/>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="24" t="s">
         <v>159</v>
       </c>
       <c r="C186" s="17" t="s">
@@ -6581,9 +6605,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="39">
+    <row r="187" spans="1:5" ht="39">
       <c r="A187" s="11"/>
-      <c r="B187" s="30"/>
+      <c r="B187" s="24"/>
       <c r="C187" s="17" t="s">
         <v>348</v>
       </c>
@@ -6591,9 +6615,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="39" customHeight="1">
+    <row r="188" spans="1:5" ht="39" customHeight="1">
       <c r="A188" s="11"/>
-      <c r="B188" s="30"/>
+      <c r="B188" s="24"/>
       <c r="C188" s="17" t="s">
         <v>161</v>
       </c>
@@ -6601,9 +6625,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="52">
+    <row r="189" spans="1:5" ht="52">
       <c r="A189" s="11"/>
-      <c r="B189" s="34" t="s">
+      <c r="B189" s="29" t="s">
         <v>162</v>
       </c>
       <c r="C189" s="17" t="s">
@@ -6613,9 +6637,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:5">
       <c r="A190" s="11"/>
-      <c r="B190" s="34"/>
+      <c r="B190" s="29"/>
       <c r="C190" s="17" t="s">
         <v>397</v>
       </c>
@@ -6623,7 +6647,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="52">
+    <row r="191" spans="1:5" ht="52">
       <c r="A191" s="11"/>
       <c r="B191" s="1" t="s">
         <v>163</v>
@@ -6635,7 +6659,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="91">
+    <row r="192" spans="1:5" ht="91">
       <c r="A192" s="11"/>
       <c r="B192" s="1" t="s">
         <v>349</v>
@@ -6647,7 +6671,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="78.75" customHeight="1">
+    <row r="193" spans="1:5" ht="78.75" customHeight="1">
       <c r="A193" s="11"/>
       <c r="B193" s="1" t="s">
         <v>164</v>
@@ -6659,15 +6683,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5">
       <c r="A194" s="6"/>
-      <c r="B194" s="33" t="s">
+      <c r="B194" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C194" s="33"/>
+      <c r="C194" s="25"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" ht="39">
+    <row r="195" spans="1:5" ht="39">
       <c r="A195" s="11"/>
       <c r="B195" s="1" t="s">
         <v>166</v>
@@ -6678,8 +6702,11 @@
       <c r="D195" s="11" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="52">
+      <c r="E195" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="52">
       <c r="A196" s="11"/>
       <c r="B196" s="1" t="s">
         <v>167</v>
@@ -6691,7 +6718,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="27.75" customHeight="1">
+    <row r="197" spans="1:5" ht="27.75" customHeight="1">
       <c r="A197" s="11"/>
       <c r="B197" s="1" t="s">
         <v>168</v>
@@ -6703,7 +6730,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="78">
+    <row r="198" spans="1:5" ht="78">
       <c r="A198" s="11"/>
       <c r="B198" s="1" t="s">
         <v>169</v>
@@ -6715,7 +6742,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="39">
+    <row r="199" spans="1:5" ht="39">
       <c r="A199" s="11"/>
       <c r="B199" s="1" t="s">
         <v>350</v>
@@ -6727,7 +6754,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="93.5">
+    <row r="200" spans="1:5" ht="93.5">
       <c r="A200" s="11"/>
       <c r="B200" s="1" t="s">
         <v>676</v>
@@ -6739,7 +6766,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="52">
+    <row r="201" spans="1:5" ht="52">
       <c r="A201" s="11"/>
       <c r="B201" s="1" t="s">
         <v>170</v>
@@ -6751,7 +6778,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="91">
+    <row r="202" spans="1:5" ht="91">
       <c r="A202" s="11"/>
       <c r="B202" s="1" t="s">
         <v>171</v>
@@ -6763,7 +6790,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="39" customHeight="1">
+    <row r="203" spans="1:5" ht="39" customHeight="1">
       <c r="A203" s="11"/>
       <c r="B203" s="1" t="s">
         <v>172</v>
@@ -6775,7 +6802,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="65">
+    <row r="204" spans="1:5" ht="65">
       <c r="A204" s="11"/>
       <c r="B204" s="1" t="s">
         <v>351</v>
@@ -6787,17 +6814,17 @@
         <v>574</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="25.5" customHeight="1">
+    <row r="205" spans="1:5" ht="25.5" customHeight="1">
       <c r="A205" s="6"/>
-      <c r="B205" s="33" t="s">
+      <c r="B205" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C205" s="33"/>
+      <c r="C205" s="25"/>
       <c r="D205" s="11"/>
     </row>
-    <row r="206" spans="1:4" ht="38.25" customHeight="1">
+    <row r="206" spans="1:5" ht="38.25" customHeight="1">
       <c r="A206" s="11"/>
-      <c r="B206" s="30" t="s">
+      <c r="B206" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C206" s="17" t="s">
@@ -6807,9 +6834,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="38.25" customHeight="1">
+    <row r="207" spans="1:5" ht="38.25" customHeight="1">
       <c r="A207" s="11"/>
-      <c r="B207" s="30"/>
+      <c r="B207" s="24"/>
       <c r="C207" s="17" t="s">
         <v>299</v>
       </c>
@@ -6817,7 +6844,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="39">
+    <row r="208" spans="1:5" ht="39">
       <c r="A208" s="11"/>
       <c r="B208" s="1" t="s">
         <v>174</v>
@@ -6829,7 +6856,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="39">
+    <row r="209" spans="1:5" ht="39">
       <c r="A209" s="11"/>
       <c r="B209" s="1" t="s">
         <v>175</v>
@@ -6841,9 +6868,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="26.25" customHeight="1">
+    <row r="210" spans="1:5" ht="26.25" customHeight="1">
       <c r="A210" s="11"/>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="24" t="s">
         <v>176</v>
       </c>
       <c r="C210" s="17" t="s">
@@ -6853,17 +6880,20 @@
         <v>579</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="26">
+    <row r="211" spans="1:5" ht="26">
       <c r="A211" s="11"/>
-      <c r="B211" s="30"/>
+      <c r="B211" s="24"/>
       <c r="C211" s="17" t="s">
         <v>671</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="39">
+      <c r="E211" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="39">
       <c r="A212" s="11"/>
       <c r="B212" s="1" t="s">
         <v>177</v>
@@ -6875,7 +6905,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="39">
+    <row r="213" spans="1:5" ht="39">
       <c r="A213" s="11"/>
       <c r="B213" s="1" t="s">
         <v>178</v>
@@ -6887,7 +6917,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="39">
+    <row r="214" spans="1:5" ht="39">
       <c r="A214" s="11"/>
       <c r="B214" s="1" t="s">
         <v>180</v>
@@ -6899,7 +6929,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="39">
+    <row r="215" spans="1:5" ht="39">
       <c r="A215" s="11"/>
       <c r="B215" s="1" t="s">
         <v>181</v>
@@ -6911,7 +6941,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="91">
+    <row r="216" spans="1:5" ht="91">
       <c r="A216" s="11"/>
       <c r="B216" s="1" t="s">
         <v>183</v>
@@ -6922,8 +6952,11 @@
       <c r="D216" s="11" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="39">
+      <c r="E216" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="39">
       <c r="A217" s="11"/>
       <c r="B217" s="1" t="s">
         <v>184</v>
@@ -6934,8 +6967,11 @@
       <c r="D217" s="11" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="52">
+      <c r="E217" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="52">
       <c r="A218" s="11"/>
       <c r="B218" s="1" t="s">
         <v>185</v>
@@ -6946,8 +6982,11 @@
       <c r="D218" s="11" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="39">
+      <c r="E218" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="39">
       <c r="A219" s="11"/>
       <c r="B219" s="1" t="s">
         <v>186</v>
@@ -6959,17 +6998,17 @@
         <v>583</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="25.5" customHeight="1">
+    <row r="220" spans="1:5" ht="25.5" customHeight="1">
       <c r="A220" s="6"/>
-      <c r="B220" s="33" t="s">
+      <c r="B220" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C220" s="33"/>
+      <c r="C220" s="25"/>
       <c r="D220" s="11"/>
     </row>
-    <row r="221" spans="1:4" ht="27" customHeight="1">
+    <row r="221" spans="1:5" ht="27" customHeight="1">
       <c r="A221" s="11"/>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="24" t="s">
         <v>187</v>
       </c>
       <c r="C221" s="17" t="s">
@@ -6979,9 +7018,9 @@
         <v>587</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="26">
+    <row r="222" spans="1:5" ht="26">
       <c r="A222" s="11"/>
-      <c r="B222" s="30"/>
+      <c r="B222" s="24"/>
       <c r="C222" s="17" t="s">
         <v>307</v>
       </c>
@@ -6989,9 +7028,9 @@
         <v>588</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="39">
+    <row r="223" spans="1:5" ht="39">
       <c r="A223" s="11"/>
-      <c r="B223" s="30"/>
+      <c r="B223" s="24"/>
       <c r="C223" s="17" t="s">
         <v>681</v>
       </c>
@@ -6999,9 +7038,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="27.75" customHeight="1">
+    <row r="224" spans="1:5" ht="27.75" customHeight="1">
       <c r="A224" s="11"/>
-      <c r="B224" s="30"/>
+      <c r="B224" s="24"/>
       <c r="C224" s="17" t="s">
         <v>659</v>
       </c>
@@ -7011,7 +7050,7 @@
     </row>
     <row r="225" spans="1:4" ht="39.75" customHeight="1">
       <c r="A225" s="11"/>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="24" t="s">
         <v>188</v>
       </c>
       <c r="C225" s="17" t="s">
@@ -7023,7 +7062,7 @@
     </row>
     <row r="226" spans="1:4" ht="27" customHeight="1">
       <c r="A226" s="11"/>
-      <c r="B226" s="30"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="17" t="s">
         <v>308</v>
       </c>
@@ -7033,7 +7072,7 @@
     </row>
     <row r="227" spans="1:4" ht="27" customHeight="1">
       <c r="A227" s="11"/>
-      <c r="B227" s="30"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="17" t="s">
         <v>365</v>
       </c>
@@ -7043,7 +7082,7 @@
     </row>
     <row r="228" spans="1:4" ht="52">
       <c r="A228" s="11"/>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="24" t="s">
         <v>189</v>
       </c>
       <c r="C228" s="17" t="s">
@@ -7055,7 +7094,7 @@
     </row>
     <row r="229" spans="1:4" ht="39.75" customHeight="1">
       <c r="A229" s="11"/>
-      <c r="B229" s="30"/>
+      <c r="B229" s="24"/>
       <c r="C229" s="17" t="s">
         <v>309</v>
       </c>
@@ -7065,7 +7104,7 @@
     </row>
     <row r="230" spans="1:4" ht="39">
       <c r="A230" s="11"/>
-      <c r="B230" s="30"/>
+      <c r="B230" s="24"/>
       <c r="C230" s="17" t="s">
         <v>398</v>
       </c>
@@ -7075,7 +7114,7 @@
     </row>
     <row r="231" spans="1:4" ht="27" customHeight="1">
       <c r="A231" s="11"/>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="24" t="s">
         <v>190</v>
       </c>
       <c r="C231" s="17" t="s">
@@ -7087,7 +7126,7 @@
     </row>
     <row r="232" spans="1:4" ht="39">
       <c r="A232" s="11"/>
-      <c r="B232" s="30"/>
+      <c r="B232" s="24"/>
       <c r="C232" s="17" t="s">
         <v>192</v>
       </c>
@@ -7097,7 +7136,7 @@
     </row>
     <row r="233" spans="1:4" ht="39" customHeight="1">
       <c r="A233" s="11"/>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="24" t="s">
         <v>193</v>
       </c>
       <c r="C233" s="17" t="s">
@@ -7109,7 +7148,7 @@
     </row>
     <row r="234" spans="1:4" ht="40.5" customHeight="1">
       <c r="A234" s="11"/>
-      <c r="B234" s="30"/>
+      <c r="B234" s="24"/>
       <c r="C234" s="17" t="s">
         <v>357</v>
       </c>
@@ -7119,7 +7158,7 @@
     </row>
     <row r="235" spans="1:4" ht="27" customHeight="1">
       <c r="A235" s="11"/>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="24" t="s">
         <v>194</v>
       </c>
       <c r="C235" s="17" t="s">
@@ -7131,7 +7170,7 @@
     </row>
     <row r="236" spans="1:4" ht="27" customHeight="1">
       <c r="A236" s="11"/>
-      <c r="B236" s="30"/>
+      <c r="B236" s="24"/>
       <c r="C236" s="17" t="s">
         <v>195</v>
       </c>
@@ -7141,7 +7180,7 @@
     </row>
     <row r="237" spans="1:4" ht="52">
       <c r="A237" s="11"/>
-      <c r="B237" s="30" t="s">
+      <c r="B237" s="24" t="s">
         <v>196</v>
       </c>
       <c r="C237" s="17" t="s">
@@ -7153,7 +7192,7 @@
     </row>
     <row r="238" spans="1:4" ht="26">
       <c r="A238" s="11"/>
-      <c r="B238" s="30"/>
+      <c r="B238" s="24"/>
       <c r="C238" s="17" t="s">
         <v>197</v>
       </c>
@@ -7187,7 +7226,7 @@
     </row>
     <row r="241" spans="1:4" ht="52.5" customHeight="1">
       <c r="A241" s="11"/>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="24" t="s">
         <v>201</v>
       </c>
       <c r="C241" s="17" t="s">
@@ -7199,7 +7238,7 @@
     </row>
     <row r="242" spans="1:4" ht="27" customHeight="1">
       <c r="A242" s="11"/>
-      <c r="B242" s="30"/>
+      <c r="B242" s="24"/>
       <c r="C242" s="17" t="s">
         <v>202</v>
       </c>
@@ -7233,10 +7272,10 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6"/>
-      <c r="B245" s="33" t="s">
+      <c r="B245" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="C245" s="33"/>
+      <c r="C245" s="25"/>
       <c r="D245" s="11"/>
     </row>
     <row r="246" spans="1:4">
@@ -7249,7 +7288,7 @@
     </row>
     <row r="247" spans="1:4" ht="21" customHeight="1">
       <c r="A247" s="11"/>
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="24" t="s">
         <v>208</v>
       </c>
       <c r="C247" s="17" t="s">
@@ -7261,7 +7300,7 @@
     </row>
     <row r="248" spans="1:4" ht="21" customHeight="1">
       <c r="A248" s="11"/>
-      <c r="B248" s="30"/>
+      <c r="B248" s="24"/>
       <c r="C248" s="17" t="s">
         <v>210</v>
       </c>
@@ -7283,7 +7322,7 @@
     </row>
     <row r="250" spans="1:4" ht="26">
       <c r="A250" s="11"/>
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="24" t="s">
         <v>212</v>
       </c>
       <c r="C250" s="17" t="s">
@@ -7295,7 +7334,7 @@
     </row>
     <row r="251" spans="1:4" ht="26">
       <c r="A251" s="11"/>
-      <c r="B251" s="30"/>
+      <c r="B251" s="24"/>
       <c r="C251" s="17" t="s">
         <v>213</v>
       </c>
@@ -7303,7 +7342,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="52">
+    <row r="252" spans="1:4" ht="65">
       <c r="A252" s="11"/>
       <c r="B252" s="1" t="s">
         <v>214</v>
@@ -7529,7 +7568,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="11"/>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="24" t="s">
         <v>243</v>
       </c>
       <c r="C273" s="17" t="s">
@@ -7541,7 +7580,7 @@
     </row>
     <row r="274" spans="1:5" ht="27" customHeight="1">
       <c r="A274" s="11"/>
-      <c r="B274" s="30"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="17" t="s">
         <v>244</v>
       </c>
@@ -7551,7 +7590,7 @@
     </row>
     <row r="275" spans="1:5" ht="27" customHeight="1">
       <c r="A275" s="11"/>
-      <c r="B275" s="30"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="17" t="s">
         <v>245</v>
       </c>
@@ -7561,7 +7600,7 @@
     </row>
     <row r="276" spans="1:5" ht="27" customHeight="1">
       <c r="A276" s="11"/>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="24" t="s">
         <v>246</v>
       </c>
       <c r="C276" s="17" t="s">
@@ -7573,7 +7612,7 @@
     </row>
     <row r="277" spans="1:5" ht="52.5" thickBot="1">
       <c r="A277" s="11"/>
-      <c r="B277" s="31"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="20" t="s">
         <v>651</v>
       </c>
@@ -7584,58 +7623,58 @@
     <row r="278" spans="1:5" ht="18.649999999999999" customHeight="1" thickTop="1"/>
     <row r="279" spans="1:5" ht="60.75" customHeight="1">
       <c r="A279" s="8"/>
-      <c r="B279" s="38" t="s">
+      <c r="B279" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="C279" s="38"/>
+      <c r="C279" s="33"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="9"/>
-      <c r="B280" s="32" t="s">
+      <c r="B280" s="40" t="s">
         <v>631</v>
       </c>
-      <c r="C280" s="32"/>
+      <c r="C280" s="40"/>
       <c r="D280" s="9"/>
       <c r="E280" s="23"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="8"/>
-      <c r="B281" s="26" t="s">
+      <c r="B281" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="C281" s="26"/>
+      <c r="C281" s="35"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="9"/>
-      <c r="B282" s="27" t="s">
+      <c r="B282" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C282" s="28"/>
+      <c r="C282" s="37"/>
     </row>
     <row r="283" spans="1:5" ht="29.15" customHeight="1">
-      <c r="B283" s="29" t="s">
+      <c r="B283" s="38" t="s">
         <v>672</v>
       </c>
-      <c r="C283" s="28"/>
+      <c r="C283" s="37"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="8"/>
-      <c r="B284" s="25" t="s">
+      <c r="B284" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="C284" s="26"/>
+      <c r="C284" s="35"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="8"/>
-      <c r="B285" s="25" t="s">
+      <c r="B285" s="34" t="s">
         <v>674</v>
       </c>
-      <c r="C285" s="26"/>
+      <c r="C285" s="35"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="9"/>
-      <c r="B286" s="27"/>
-      <c r="C286" s="28"/>
+      <c r="B286" s="36"/>
+      <c r="C286" s="37"/>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="9"/>
@@ -7643,49 +7682,94 @@
       <c r="C287" s="22"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="B288" s="24"/>
-      <c r="C288" s="24"/>
+      <c r="B288" s="41"/>
+      <c r="C288" s="41"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="24"/>
-      <c r="C289" s="24"/>
+      <c r="B289" s="41"/>
+      <c r="C289" s="41"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="24"/>
-      <c r="C290" s="24"/>
+      <c r="B290" s="41"/>
+      <c r="C290" s="41"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="24"/>
-      <c r="C291" s="24"/>
+      <c r="B291" s="41"/>
+      <c r="C291" s="41"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="24"/>
-      <c r="C292" s="24"/>
+      <c r="B292" s="41"/>
+      <c r="C292" s="41"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="24"/>
-      <c r="C293" s="24"/>
+      <c r="B293" s="41"/>
+      <c r="C293" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="D3:D277" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="95">
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B62:C62"/>
@@ -7702,68 +7786,23 @@
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -7779,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87FA89-D5D9-429F-844B-B4D0BC8B9A68}">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164:C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
